--- a/data/CoVid19-ADB-infection_per_vax.xlsx
+++ b/data/CoVid19-ADB-infection_per_vax.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23F8A55-C669-0540-9832-4278C0375D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF45B0C9-2C7B-754F-9513-CBA5547E9A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{82298470-7951-F644-8280-A9DDA1B95F75}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="6月6日〜6月12日" sheetId="3" r:id="rId2"/>
     <sheet name="5月30日〜6月5日" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>0-11歳</t>
   </si>
@@ -121,6 +121,12 @@
   <si>
     <t>2回</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10900000/000955788.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10900000/000959353.pdf</t>
   </si>
 </sst>
 </file>
@@ -128,11 +134,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="185" formatCode="0.0_ "/>
-    <numFmt numFmtId="187" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="188" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -180,22 +186,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,11 +518,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53529764-596A-B04D-8640-EA9B8577167F}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="20"/>
   <cols>
@@ -525,499 +529,492 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" t="s">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>15744</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10752745</v>
-      </c>
-      <c r="D2">
-        <v>146.4</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>2433</v>
+        <v>15744</v>
       </c>
       <c r="C3" s="1">
-        <v>2138902</v>
+        <v>10752745</v>
       </c>
       <c r="D3">
-        <v>113.7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3703</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4171003</v>
-      </c>
-      <c r="G3">
-        <v>88.8</v>
-      </c>
-      <c r="H3">
-        <v>821</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2625877</v>
-      </c>
-      <c r="J3">
-        <v>31.3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3404</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>2218</v>
+        <v>2433</v>
       </c>
       <c r="C4" s="1">
-        <v>2412142</v>
+        <v>2138902</v>
       </c>
       <c r="D4">
-        <v>92</v>
+        <v>113.7</v>
       </c>
       <c r="E4" s="1">
-        <v>3516</v>
+        <v>3703</v>
       </c>
       <c r="F4" s="1">
-        <v>4619883</v>
+        <v>4171003</v>
       </c>
       <c r="G4">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2743</v>
+        <v>88.8</v>
+      </c>
+      <c r="H4">
+        <v>821</v>
       </c>
       <c r="I4" s="1">
-        <v>5687275</v>
+        <v>2625877</v>
       </c>
       <c r="J4">
-        <v>48.2</v>
+        <v>31.3</v>
       </c>
       <c r="K4" s="1">
-        <v>3741</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>2162</v>
+        <v>2218</v>
       </c>
       <c r="C5" s="1">
-        <v>2797185</v>
+        <v>2412142</v>
       </c>
       <c r="D5">
-        <v>77.3</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1">
-        <v>3837</v>
+        <v>3516</v>
       </c>
       <c r="F5" s="1">
-        <v>4571094</v>
+        <v>4619883</v>
       </c>
       <c r="G5">
-        <v>83.9</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="H5" s="1">
-        <v>3753</v>
+        <v>2743</v>
       </c>
       <c r="I5" s="1">
-        <v>6924215</v>
+        <v>5687275</v>
       </c>
       <c r="J5">
-        <v>54.2</v>
+        <v>48.2</v>
       </c>
       <c r="K5" s="1">
-        <v>4940</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>1561</v>
+        <v>2162</v>
       </c>
       <c r="C6" s="1">
-        <v>3112092</v>
+        <v>2797185</v>
       </c>
       <c r="D6">
-        <v>50.2</v>
+        <v>77.3</v>
       </c>
       <c r="E6" s="1">
-        <v>3124</v>
+        <v>3837</v>
       </c>
       <c r="F6" s="1">
-        <v>4648229</v>
+        <v>4571094</v>
       </c>
       <c r="G6">
-        <v>67.2</v>
+        <v>83.9</v>
       </c>
       <c r="H6" s="1">
-        <v>4321</v>
+        <v>3753</v>
       </c>
       <c r="I6" s="1">
-        <v>10593867</v>
+        <v>6924215</v>
       </c>
       <c r="J6">
-        <v>40.799999999999997</v>
+        <v>54.2</v>
       </c>
       <c r="K6" s="1">
-        <v>4321</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>831</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1561</v>
       </c>
       <c r="C7" s="1">
-        <v>1295142</v>
+        <v>3112092</v>
       </c>
       <c r="D7">
-        <v>64.2</v>
+        <v>50.2</v>
       </c>
       <c r="E7" s="1">
-        <v>1319</v>
+        <v>3124</v>
       </c>
       <c r="F7" s="1">
-        <v>2850271</v>
+        <v>4648229</v>
       </c>
       <c r="G7">
-        <v>46.3</v>
+        <v>67.2</v>
       </c>
       <c r="H7" s="1">
-        <v>3032</v>
+        <v>4321</v>
       </c>
       <c r="I7" s="1">
-        <v>12618762</v>
+        <v>10593867</v>
       </c>
       <c r="J7">
-        <v>24</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="K7" s="1">
-        <v>2232</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>201</v>
+        <v>831</v>
       </c>
       <c r="C8" s="1">
-        <v>622278</v>
+        <v>1295142</v>
       </c>
       <c r="D8">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="E8">
-        <v>287</v>
+        <v>64.2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1319</v>
       </c>
       <c r="F8" s="1">
-        <v>671636</v>
+        <v>2850271</v>
       </c>
       <c r="G8">
-        <v>42.7</v>
+        <v>46.3</v>
       </c>
       <c r="H8" s="1">
-        <v>1235</v>
+        <v>3032</v>
       </c>
       <c r="I8" s="1">
-        <v>6103931</v>
+        <v>12618762</v>
       </c>
       <c r="J8">
-        <v>20.2</v>
-      </c>
-      <c r="K8">
-        <v>749</v>
+        <v>24</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2232</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1">
-        <v>1012727</v>
+        <v>622278</v>
       </c>
       <c r="D9">
-        <v>11.9</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="E9">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="F9" s="1">
-        <v>394791</v>
+        <v>671636</v>
       </c>
       <c r="G9">
-        <v>38.200000000000003</v>
+        <v>42.7</v>
       </c>
       <c r="H9" s="1">
-        <v>1137</v>
+        <v>1235</v>
       </c>
       <c r="I9" s="1">
-        <v>6676665</v>
+        <v>6103931</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>20.2</v>
       </c>
       <c r="K9">
-        <v>651</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1">
-        <v>876554</v>
+        <v>1012727</v>
       </c>
       <c r="D10">
-        <v>21.3</v>
+        <v>11.9</v>
       </c>
       <c r="E10">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="F10" s="1">
-        <v>650032</v>
+        <v>394791</v>
       </c>
       <c r="G10">
-        <v>38.299999999999997</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H10" s="1">
-        <v>1766</v>
+        <v>1137</v>
       </c>
       <c r="I10" s="1">
-        <v>14667403</v>
+        <v>6676665</v>
       </c>
       <c r="J10">
-        <v>12</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1088</v>
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1">
-        <v>76282</v>
+        <v>876554</v>
       </c>
       <c r="D11">
-        <v>184.8</v>
+        <v>21.3</v>
       </c>
       <c r="E11">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="F11" s="1">
-        <v>456498</v>
+        <v>650032</v>
       </c>
       <c r="G11">
-        <v>36.6</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>1014</v>
+        <v>1766</v>
       </c>
       <c r="I11" s="1">
-        <v>8494105</v>
+        <v>14667403</v>
       </c>
       <c r="J11">
-        <v>11.9</v>
-      </c>
-      <c r="K11">
-        <v>697</v>
+        <v>12</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1088</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>141</v>
+      </c>
+      <c r="C12" s="1">
+        <v>76282</v>
+      </c>
+      <c r="D12">
+        <v>184.8</v>
+      </c>
+      <c r="E12">
+        <v>167</v>
+      </c>
+      <c r="F12" s="1">
+        <v>456498</v>
+      </c>
+      <c r="G12">
+        <v>36.6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1014</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8494105</v>
+      </c>
+      <c r="J12">
+        <v>11.9</v>
+      </c>
+      <c r="K12">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>65</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>73</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>159714</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>45.7</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>462</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <v>2221467</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>20.8</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1">
-        <f>SUM(B3:B12)</f>
+      <c r="B15" s="1">
+        <f>SUM(B4:B13)</f>
         <v>9920</v>
       </c>
-      <c r="C14" s="1">
-        <f>SUM(C3:C12)</f>
+      <c r="C15" s="1">
+        <f>SUM(C4:C13)</f>
         <v>14343304</v>
       </c>
-      <c r="D14" s="4">
-        <f>B14/C14*100000</f>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
         <v>69.161191870436554</v>
       </c>
-      <c r="E14" s="1">
-        <f>SUM(E3:E12)</f>
+      <c r="E15" s="1">
+        <f>SUM(E4:E13)</f>
         <v>16426</v>
       </c>
-      <c r="F14" s="1">
-        <f>SUM(F3:F12)</f>
+      <c r="F15" s="1">
+        <f>SUM(F4:F13)</f>
         <v>23193151</v>
       </c>
-      <c r="G14" s="4">
-        <f>E14/F14*100000</f>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
         <v>70.822632077892308</v>
       </c>
-      <c r="H14" s="1">
-        <f>SUM(H3:H12)</f>
+      <c r="H15" s="1">
+        <f>SUM(H4:H13)</f>
         <v>20284</v>
       </c>
-      <c r="I14" s="1">
-        <f>SUM(I3:I12)</f>
+      <c r="I15" s="1">
+        <f>SUM(I4:I13)</f>
         <v>76613567</v>
       </c>
-      <c r="J14" s="4">
-        <f>H14/I14*100000</f>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
         <v>26.475728509025043</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="H16" t="s">
+    <row r="17" spans="1:11">
+      <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1">
-        <f>B14</f>
+      <c r="B18" s="1">
+        <f>B15</f>
         <v>9920</v>
       </c>
-      <c r="C17" s="1">
-        <f>C14</f>
+      <c r="C18" s="1">
+        <f>C15</f>
         <v>14343304</v>
       </c>
-      <c r="D17" s="4">
-        <f>B17/C17*100000</f>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
         <v>69.161191870436554</v>
       </c>
-      <c r="E17" s="1">
-        <f>E14+H14</f>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
         <v>36710</v>
       </c>
-      <c r="F17" s="1">
-        <f>F14+I14</f>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
         <v>99806718</v>
       </c>
-      <c r="G17" s="4">
-        <f>E17/F17*100000</f>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
         <v>36.78109122874875</v>
       </c>
-      <c r="H17" s="6">
-        <f>G17/D17</f>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
         <v>0.53181690821136773</v>
       </c>
-      <c r="I17" s="7">
-        <f>1-H17</f>
+      <c r="I18" s="7">
+        <f>1-H18</f>
         <v>0.46818309178863227</v>
       </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:11">
       <c r="B19" s="1"/>
@@ -1044,18 +1041,22 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:11">
       <c r="B24" s="1"/>
@@ -1097,13 +1098,13 @@
       <c r="F28" s="1"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="4"/>
+    <row r="29" spans="1:11">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="32" spans="1:11">
       <c r="B32" s="1"/>
@@ -1136,6 +1137,14 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1145,487 +1154,490 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF1FB26-5429-154F-8F37-227FC0E69C75}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" t="s">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>16548</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10770888</v>
-      </c>
-      <c r="D2">
-        <v>153.6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>2869</v>
+        <v>16548</v>
       </c>
       <c r="C3" s="1">
-        <v>2130988</v>
+        <v>10770888</v>
       </c>
       <c r="D3">
-        <v>134.6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4102</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4288788</v>
-      </c>
-      <c r="G3">
-        <v>95.6</v>
-      </c>
-      <c r="H3">
-        <v>845</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2513728</v>
-      </c>
-      <c r="J3">
-        <v>33.6</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3622</v>
+        <v>153.6</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>2344</v>
+        <v>2869</v>
       </c>
       <c r="C4" s="1">
-        <v>2415367</v>
+        <v>2130988</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>134.6</v>
       </c>
       <c r="E4" s="1">
-        <v>3847</v>
+        <v>4102</v>
       </c>
       <c r="F4" s="1">
-        <v>4739423</v>
+        <v>4288788</v>
       </c>
       <c r="G4">
-        <v>81.2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2603</v>
+        <v>95.6</v>
+      </c>
+      <c r="H4">
+        <v>845</v>
       </c>
       <c r="I4" s="1">
-        <v>5563519</v>
+        <v>2513728</v>
       </c>
       <c r="J4">
-        <v>46.8</v>
+        <v>33.6</v>
       </c>
       <c r="K4" s="1">
-        <v>4146</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>2541</v>
+        <v>2344</v>
       </c>
       <c r="C5" s="1">
-        <v>2795091</v>
+        <v>2415367</v>
       </c>
       <c r="D5">
-        <v>90.9</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1">
-        <v>4249</v>
+        <v>3847</v>
       </c>
       <c r="F5" s="1">
-        <v>4705037</v>
+        <v>4739423</v>
       </c>
       <c r="G5">
-        <v>90.3</v>
+        <v>81.2</v>
       </c>
       <c r="H5" s="1">
-        <v>3849</v>
+        <v>2603</v>
       </c>
       <c r="I5" s="1">
-        <v>6791650</v>
+        <v>5563519</v>
       </c>
       <c r="J5">
-        <v>56.7</v>
+        <v>46.8</v>
       </c>
       <c r="K5" s="1">
-        <v>5390</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>1686</v>
+        <v>2541</v>
       </c>
       <c r="C6" s="1">
-        <v>3106390</v>
+        <v>2795091</v>
       </c>
       <c r="D6">
-        <v>54.3</v>
+        <v>90.9</v>
       </c>
       <c r="E6" s="1">
-        <v>3538</v>
+        <v>4249</v>
       </c>
       <c r="F6" s="1">
-        <v>4794784</v>
+        <v>4705037</v>
       </c>
       <c r="G6">
-        <v>73.8</v>
+        <v>90.3</v>
       </c>
       <c r="H6" s="1">
-        <v>4211</v>
+        <v>3849</v>
       </c>
       <c r="I6" s="1">
-        <v>10452637</v>
+        <v>6791650</v>
       </c>
       <c r="J6">
-        <v>40.299999999999997</v>
+        <v>56.7</v>
       </c>
       <c r="K6" s="1">
-        <v>4592</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>854</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1686</v>
       </c>
       <c r="C7" s="1">
-        <v>1306147</v>
+        <v>3106390</v>
       </c>
       <c r="D7">
-        <v>65.400000000000006</v>
+        <v>54.3</v>
       </c>
       <c r="E7" s="1">
-        <v>1461</v>
+        <v>3538</v>
       </c>
       <c r="F7" s="1">
-        <v>2952557</v>
+        <v>4794784</v>
       </c>
       <c r="G7">
-        <v>49.5</v>
+        <v>73.8</v>
       </c>
       <c r="H7" s="1">
-        <v>3056</v>
+        <v>4211</v>
       </c>
       <c r="I7" s="1">
-        <v>12505433</v>
+        <v>10452637</v>
       </c>
       <c r="J7">
-        <v>24.4</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="K7" s="1">
-        <v>2376</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>200</v>
+        <v>854</v>
       </c>
       <c r="C8" s="1">
-        <v>622604</v>
+        <v>1306147</v>
       </c>
       <c r="D8">
-        <v>32.1</v>
-      </c>
-      <c r="E8">
-        <v>281</v>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1461</v>
       </c>
       <c r="F8" s="1">
-        <v>697948</v>
+        <v>2952557</v>
       </c>
       <c r="G8">
-        <v>40.299999999999997</v>
+        <v>49.5</v>
       </c>
       <c r="H8" s="1">
-        <v>1285</v>
+        <v>3056</v>
       </c>
       <c r="I8" s="1">
-        <v>6077200</v>
+        <v>12505433</v>
       </c>
       <c r="J8">
-        <v>21.1</v>
-      </c>
-      <c r="K8">
-        <v>825</v>
+        <v>24.4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2376</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1">
-        <v>1008846</v>
+        <v>622604</v>
       </c>
       <c r="D9">
-        <v>15.2</v>
+        <v>32.1</v>
       </c>
       <c r="E9">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="F9" s="1">
-        <v>406109</v>
+        <v>697948</v>
       </c>
       <c r="G9">
-        <v>44.8</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>1138</v>
+        <v>1285</v>
       </c>
       <c r="I9" s="1">
-        <v>6669161</v>
+        <v>6077200</v>
       </c>
       <c r="J9">
-        <v>17.100000000000001</v>
+        <v>21.1</v>
       </c>
       <c r="K9">
-        <v>737</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1">
-        <v>878861</v>
+        <v>1008846</v>
       </c>
       <c r="D10">
-        <v>21.8</v>
+        <v>15.2</v>
       </c>
       <c r="E10">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="F10" s="1">
-        <v>668760</v>
+        <v>406109</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>44.8</v>
       </c>
       <c r="H10" s="1">
-        <v>1773</v>
+        <v>1138</v>
       </c>
       <c r="I10" s="1">
-        <v>14646121</v>
+        <v>6669161</v>
       </c>
       <c r="J10">
-        <v>12.1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1069</v>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K10">
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1">
-        <v>81035</v>
+        <v>878861</v>
       </c>
       <c r="D11">
-        <v>150.6</v>
+        <v>21.8</v>
       </c>
       <c r="E11">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="F11" s="1">
-        <v>470013</v>
+        <v>668760</v>
       </c>
       <c r="G11">
-        <v>33.799999999999997</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1">
-        <v>1101</v>
+        <v>1773</v>
       </c>
       <c r="I11" s="1">
-        <v>8475610</v>
+        <v>14646121</v>
       </c>
       <c r="J11">
-        <v>13</v>
-      </c>
-      <c r="K11">
-        <v>744</v>
+        <v>12.1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1069</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>122</v>
+      </c>
+      <c r="C12" s="1">
+        <v>81035</v>
+      </c>
+      <c r="D12">
+        <v>150.6</v>
+      </c>
+      <c r="E12">
+        <v>159</v>
+      </c>
+      <c r="F12" s="1">
+        <v>470013</v>
+      </c>
+      <c r="G12">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1101</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8475610</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>75</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>165204</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>45.4</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>549</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <v>2213610</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>24.8</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1">
-        <f>SUM(B3:B12)</f>
+      <c r="B15" s="1">
+        <f>SUM(B4:B13)</f>
         <v>11023</v>
       </c>
-      <c r="C14" s="1">
-        <f>SUM(C3:C12)</f>
+      <c r="C15" s="1">
+        <f>SUM(C4:C13)</f>
         <v>14345329</v>
       </c>
-      <c r="D14" s="4">
-        <f>B14/C14*100000</f>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
         <v>76.840342943685712</v>
       </c>
-      <c r="E14" s="1">
-        <f>SUM(E3:E12)</f>
+      <c r="E15" s="1">
+        <f>SUM(E4:E13)</f>
         <v>18148</v>
       </c>
-      <c r="F14" s="1">
-        <f>SUM(F3:F12)</f>
+      <c r="F15" s="1">
+        <f>SUM(F4:F13)</f>
         <v>23888623</v>
       </c>
-      <c r="G14" s="4">
-        <f>E14/F14*100000</f>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
         <v>75.969217648082932</v>
       </c>
-      <c r="H14" s="1">
-        <f>SUM(H3:H12)</f>
+      <c r="H15" s="1">
+        <f>SUM(H4:H13)</f>
         <v>20410</v>
       </c>
-      <c r="I14" s="1">
-        <f>SUM(I3:I12)</f>
+      <c r="I15" s="1">
+        <f>SUM(I4:I13)</f>
         <v>75908669</v>
       </c>
-      <c r="J14" s="4">
-        <f>H14/I14*100000</f>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
         <v>26.887574593094236</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="H16" t="s">
+    <row r="17" spans="1:10">
+      <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1">
-        <f>B14</f>
+      <c r="B18" s="1">
+        <f>B15</f>
         <v>11023</v>
       </c>
-      <c r="C17" s="1">
-        <f>C14</f>
+      <c r="C18" s="1">
+        <f>C15</f>
         <v>14345329</v>
       </c>
-      <c r="D17" s="4">
-        <f>B17/C17*100000</f>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
         <v>76.840342943685712</v>
       </c>
-      <c r="E17" s="1">
-        <f>E14+H14</f>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
         <v>38558</v>
       </c>
-      <c r="F17" s="1">
-        <f>F14+I14</f>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
         <v>99797292</v>
       </c>
-      <c r="G17" s="4">
-        <f>E17/F17*100000</f>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
         <v>38.636318909334733</v>
       </c>
-      <c r="H17" s="6">
-        <f>G17/D17</f>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
         <v>0.50281294212403871</v>
       </c>
-      <c r="I17" s="7">
-        <f>1-H17</f>
+      <c r="I18" s="7">
+        <f>1-H18</f>
         <v>0.49718705787596129</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1635,487 +1647,490 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC594148-9F31-7A42-8E4A-6FB3022054F1}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" t="s">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20153</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10789693</v>
-      </c>
-      <c r="D2">
-        <v>186.8</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>3304</v>
+        <v>20153</v>
       </c>
       <c r="C3" s="1">
-        <v>2134109</v>
+        <v>10789693</v>
       </c>
       <c r="D3">
-        <v>154.80000000000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4801</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4371477</v>
-      </c>
-      <c r="G3">
-        <v>109.8</v>
-      </c>
-      <c r="H3">
-        <v>985</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2426374</v>
-      </c>
-      <c r="J3">
-        <v>40.6</v>
-      </c>
-      <c r="K3" s="1">
-        <v>4557</v>
+        <v>186.8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>3166</v>
+        <v>3304</v>
       </c>
       <c r="C4" s="1">
-        <v>2417893</v>
+        <v>2134109</v>
       </c>
       <c r="D4">
-        <v>130.9</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>5036</v>
+        <v>4801</v>
       </c>
       <c r="F4" s="1">
-        <v>4823259</v>
+        <v>4371477</v>
       </c>
       <c r="G4">
-        <v>104.4</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3281</v>
+        <v>109.8</v>
+      </c>
+      <c r="H4">
+        <v>985</v>
       </c>
       <c r="I4" s="1">
-        <v>5476899</v>
+        <v>2426374</v>
       </c>
       <c r="J4">
-        <v>59.9</v>
+        <v>40.6</v>
       </c>
       <c r="K4" s="1">
-        <v>5228</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>3114</v>
+        <v>3166</v>
       </c>
       <c r="C5" s="1">
-        <v>2796908</v>
+        <v>2417893</v>
       </c>
       <c r="D5">
-        <v>111.3</v>
+        <v>130.9</v>
       </c>
       <c r="E5" s="1">
-        <v>5605</v>
+        <v>5036</v>
       </c>
       <c r="F5" s="1">
-        <v>4803018</v>
+        <v>4823259</v>
       </c>
       <c r="G5">
-        <v>116.7</v>
+        <v>104.4</v>
       </c>
       <c r="H5" s="1">
-        <v>4628</v>
+        <v>3281</v>
       </c>
       <c r="I5" s="1">
-        <v>6691491</v>
+        <v>5476899</v>
       </c>
       <c r="J5">
-        <v>69.2</v>
+        <v>59.9</v>
       </c>
       <c r="K5" s="1">
-        <v>6615</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>2268</v>
+        <v>3114</v>
       </c>
       <c r="C6" s="1">
-        <v>3107718</v>
+        <v>2796908</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>111.3</v>
       </c>
       <c r="E6" s="1">
-        <v>4471</v>
+        <v>5605</v>
       </c>
       <c r="F6" s="1">
-        <v>4902355</v>
+        <v>4803018</v>
       </c>
       <c r="G6">
-        <v>91.2</v>
+        <v>116.7</v>
       </c>
       <c r="H6" s="1">
-        <v>5197</v>
+        <v>4628</v>
       </c>
       <c r="I6" s="1">
-        <v>10343639</v>
+        <v>6691491</v>
       </c>
       <c r="J6">
-        <v>50.2</v>
+        <v>69.2</v>
       </c>
       <c r="K6" s="1">
-        <v>5931</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>1099</v>
+        <v>2268</v>
       </c>
       <c r="C7" s="1">
-        <v>1307073</v>
+        <v>3107718</v>
       </c>
       <c r="D7">
-        <v>84.1</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1">
-        <v>1860</v>
+        <v>4471</v>
       </c>
       <c r="F7" s="1">
-        <v>3028872</v>
+        <v>4902355</v>
       </c>
       <c r="G7">
-        <v>61.4</v>
+        <v>91.2</v>
       </c>
       <c r="H7" s="1">
-        <v>3633</v>
+        <v>5197</v>
       </c>
       <c r="I7" s="1">
-        <v>12428106</v>
+        <v>10343639</v>
       </c>
       <c r="J7">
-        <v>29.2</v>
+        <v>50.2</v>
       </c>
       <c r="K7" s="1">
-        <v>2928</v>
+        <v>5931</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>271</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1099</v>
       </c>
       <c r="C8" s="1">
-        <v>622891</v>
+        <v>1307073</v>
       </c>
       <c r="D8">
-        <v>43.5</v>
-      </c>
-      <c r="E8">
-        <v>389</v>
+        <v>84.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1860</v>
       </c>
       <c r="F8" s="1">
-        <v>716271</v>
+        <v>3028872</v>
       </c>
       <c r="G8">
-        <v>54.3</v>
+        <v>61.4</v>
       </c>
       <c r="H8" s="1">
-        <v>1611</v>
+        <v>3633</v>
       </c>
       <c r="I8" s="1">
-        <v>6058574</v>
+        <v>12428106</v>
       </c>
       <c r="J8">
-        <v>26.6</v>
+        <v>29.2</v>
       </c>
       <c r="K8" s="1">
-        <v>1023</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C9" s="1">
-        <v>1009056</v>
+        <v>622891</v>
       </c>
       <c r="D9">
-        <v>18.2</v>
+        <v>43.5</v>
       </c>
       <c r="E9">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="F9" s="1">
-        <v>413319</v>
+        <v>716271</v>
       </c>
       <c r="G9">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="H9" s="1">
-        <v>1381</v>
+        <v>1611</v>
       </c>
       <c r="I9" s="1">
-        <v>6661722</v>
+        <v>6058574</v>
       </c>
       <c r="J9">
-        <v>20.7</v>
-      </c>
-      <c r="K9">
-        <v>866</v>
+        <v>26.6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1023</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1">
-        <v>879186</v>
+        <v>1009056</v>
       </c>
       <c r="D10">
-        <v>27.8</v>
+        <v>18.2</v>
       </c>
       <c r="E10">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="F10" s="1">
-        <v>679339</v>
+        <v>413319</v>
       </c>
       <c r="G10">
-        <v>45.8</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1">
-        <v>2377</v>
+        <v>1381</v>
       </c>
       <c r="I10" s="1">
-        <v>14635118</v>
+        <v>6661722</v>
       </c>
       <c r="J10">
-        <v>16.2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1359</v>
+        <v>20.7</v>
+      </c>
+      <c r="K10">
+        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="C11" s="1">
-        <v>81312</v>
+        <v>879186</v>
       </c>
       <c r="D11">
-        <v>205.4</v>
+        <v>27.8</v>
       </c>
       <c r="E11">
-        <v>179</v>
+        <v>311</v>
       </c>
       <c r="F11" s="1">
-        <v>475671</v>
+        <v>679339</v>
       </c>
       <c r="G11">
-        <v>37.6</v>
+        <v>45.8</v>
       </c>
       <c r="H11" s="1">
-        <v>1416</v>
+        <v>2377</v>
       </c>
       <c r="I11" s="1">
-        <v>8469610</v>
+        <v>14635118</v>
       </c>
       <c r="J11">
-        <v>16.7</v>
-      </c>
-      <c r="K11">
-        <v>976</v>
+        <v>16.2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1359</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>167</v>
+      </c>
+      <c r="C12" s="1">
+        <v>81312</v>
+      </c>
+      <c r="D12">
+        <v>205.4</v>
+      </c>
+      <c r="E12">
+        <v>179</v>
+      </c>
+      <c r="F12" s="1">
+        <v>475671</v>
+      </c>
+      <c r="G12">
+        <v>37.6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1416</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8469610</v>
+      </c>
+      <c r="J12">
+        <v>16.7</v>
+      </c>
+      <c r="K12">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>90</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>111</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>166659</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>66.599999999999994</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>621</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <v>2212030</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>28.1</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1">
-        <f>SUM(B3:B12)</f>
+      <c r="B15" s="1">
+        <f>SUM(B4:B13)</f>
         <v>13907</v>
       </c>
-      <c r="C14" s="1">
-        <f>SUM(C3:C12)</f>
+      <c r="C15" s="1">
+        <f>SUM(C4:C13)</f>
         <v>14356146</v>
       </c>
-      <c r="D14" s="4">
-        <f>B14/C14*100000</f>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
         <v>96.871402673112968</v>
       </c>
-      <c r="E14" s="1">
-        <f>SUM(E3:E12)</f>
+      <c r="E15" s="1">
+        <f>SUM(E4:E13)</f>
         <v>22986</v>
       </c>
-      <c r="F14" s="1">
-        <f>SUM(F3:F12)</f>
+      <c r="F15" s="1">
+        <f>SUM(F4:F13)</f>
         <v>24380240</v>
       </c>
-      <c r="G14" s="4">
-        <f>E14/F14*100000</f>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
         <v>94.281270405869662</v>
       </c>
-      <c r="H14" s="1">
-        <f>SUM(H3:H12)</f>
+      <c r="H15" s="1">
+        <f>SUM(H4:H13)</f>
         <v>25130</v>
       </c>
-      <c r="I14" s="1">
-        <f>SUM(I3:I12)</f>
+      <c r="I15" s="1">
+        <f>SUM(I4:I13)</f>
         <v>75403563</v>
       </c>
-      <c r="J14" s="4">
-        <f>H14/I14*100000</f>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
         <v>33.327337595439623</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="H16" t="s">
+    <row r="17" spans="1:10">
+      <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1">
-        <f>B14</f>
+      <c r="B18" s="1">
+        <f>B15</f>
         <v>13907</v>
       </c>
-      <c r="C17" s="1">
-        <f>C14</f>
+      <c r="C18" s="1">
+        <f>C15</f>
         <v>14356146</v>
       </c>
-      <c r="D17" s="4">
-        <f>B17/C17*100000</f>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
         <v>96.871402673112968</v>
       </c>
-      <c r="E17" s="1">
-        <f>E14+H14</f>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
         <v>48116</v>
       </c>
-      <c r="F17" s="1">
-        <f>F14+I14</f>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
         <v>99783803</v>
       </c>
-      <c r="G17" s="4">
-        <f>E17/F17*100000</f>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
         <v>48.220250735482587</v>
       </c>
-      <c r="H17" s="6">
-        <f>G17/D17</f>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
         <v>0.4977759112067271</v>
       </c>
-      <c r="I17" s="7">
-        <f>1-H17</f>
+      <c r="I18" s="7">
+        <f>1-H18</f>
         <v>0.50222408879327296</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/CoVid19-ADB-infection_per_vax.xlsx
+++ b/data/CoVid19-ADB-infection_per_vax.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF45B0C9-2C7B-754F-9513-CBA5547E9A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6A97CA-900E-1941-BD3F-2A840AD189FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{82298470-7951-F644-8280-A9DDA1B95F75}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{82298470-7951-F644-8280-A9DDA1B95F75}"/>
   </bookViews>
   <sheets>
-    <sheet name="6月13日〜6月19日" sheetId="1" r:id="rId1"/>
-    <sheet name="6月6日〜6月12日" sheetId="3" r:id="rId2"/>
-    <sheet name="5月30日〜6月5日" sheetId="2" r:id="rId3"/>
+    <sheet name="有効率" sheetId="7" r:id="rId1"/>
+    <sheet name="7月1日〜7月3日" sheetId="4" r:id="rId2"/>
+    <sheet name="6月27日〜6月29日" sheetId="5" r:id="rId3"/>
+    <sheet name="6月20日〜6月26日" sheetId="6" r:id="rId4"/>
+    <sheet name="6月13日〜6月19日" sheetId="1" r:id="rId5"/>
+    <sheet name="6月6日〜6月12日" sheetId="3" r:id="rId6"/>
+    <sheet name="5月30日〜6月5日" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="44">
   <si>
     <t>0-11歳</t>
   </si>
@@ -128,19 +132,89 @@
   <si>
     <t>https://www.mhlw.go.jp/content/10900000/000959353.pdf</t>
   </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10900000/000964387.pdf</t>
+  </si>
+  <si>
+    <t>2〜3回接種</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10900000/000955788.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10900000/000959353.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10900000/000964387.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陽性数</t>
+  </si>
+  <si>
+    <t>未接種人数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2〜3回接種人数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10万人あたり</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>5月30日〜6月05日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月06日〜6月12日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月13日〜6月19日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月20日〜6月26日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月27日〜6月29日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月01日〜7月03日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報源</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効率</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,16 +230,37 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -173,13 +268,228 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,8 +514,69 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,10 +888,1939 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A542951-50C2-AB4A-B2F0-1D3D236CFA45}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" thickBot="1">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="15">
+        <v>13907</v>
+      </c>
+      <c r="C2" s="16">
+        <v>14356146</v>
+      </c>
+      <c r="D2" s="17">
+        <v>96.871402673112968</v>
+      </c>
+      <c r="E2" s="15">
+        <v>48116</v>
+      </c>
+      <c r="F2" s="16">
+        <v>99783803</v>
+      </c>
+      <c r="G2" s="17">
+        <v>48.220250735482587</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.4977759112067271</v>
+      </c>
+      <c r="I2" s="26">
+        <v>0.50222408879327296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="20">
+        <v>11023</v>
+      </c>
+      <c r="C3" s="21">
+        <v>14345329</v>
+      </c>
+      <c r="D3" s="22">
+        <v>76.840342943685712</v>
+      </c>
+      <c r="E3" s="20">
+        <v>38558</v>
+      </c>
+      <c r="F3" s="21">
+        <v>99797292</v>
+      </c>
+      <c r="G3" s="22">
+        <v>38.636318909334733</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0.50281294212403871</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.49718705787596129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="20">
+        <v>9920</v>
+      </c>
+      <c r="C4" s="21">
+        <v>14343304</v>
+      </c>
+      <c r="D4" s="22">
+        <v>69.161191870436554</v>
+      </c>
+      <c r="E4" s="20">
+        <v>36710</v>
+      </c>
+      <c r="F4" s="21">
+        <v>99806718</v>
+      </c>
+      <c r="G4" s="22">
+        <v>36.78109122874875</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.53181690821136773</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.46818309178863227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="20">
+        <v>11138</v>
+      </c>
+      <c r="C5" s="21">
+        <v>14355606</v>
+      </c>
+      <c r="D5" s="22">
+        <v>77.586414673124921</v>
+      </c>
+      <c r="E5" s="20">
+        <v>44561</v>
+      </c>
+      <c r="F5" s="21">
+        <v>99809212</v>
+      </c>
+      <c r="G5" s="22">
+        <v>44.646179553045663</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.57543810654406491</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.42456189345593509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="20">
+        <v>7049</v>
+      </c>
+      <c r="C6" s="21">
+        <v>14352839</v>
+      </c>
+      <c r="D6" s="22">
+        <v>49.112234868655605</v>
+      </c>
+      <c r="E6" s="20">
+        <v>30254</v>
+      </c>
+      <c r="F6" s="21">
+        <v>99813890</v>
+      </c>
+      <c r="G6" s="22">
+        <v>30.310410705363754</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.61716618652002042</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.38283381347997958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="20">
+        <v>6288</v>
+      </c>
+      <c r="C7" s="21">
+        <v>14348023</v>
+      </c>
+      <c r="D7" s="22">
+        <v>43.824853082546632</v>
+      </c>
+      <c r="E7" s="20">
+        <v>29514</v>
+      </c>
+      <c r="F7" s="21">
+        <v>99820516</v>
+      </c>
+      <c r="G7" s="22">
+        <v>29.567068156610212</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0.67466439878118789</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.32533560121881211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33C3266-9902-5243-AAA0-969E5D3E9A2A}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8789</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10725209</v>
+      </c>
+      <c r="D3">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1622</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2156478</v>
+      </c>
+      <c r="D4">
+        <v>75.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2579</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3994062</v>
+      </c>
+      <c r="G4">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="H4">
+        <v>851</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2789679</v>
+      </c>
+      <c r="J4">
+        <v>30.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1480</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2408945</v>
+      </c>
+      <c r="D5">
+        <v>61.4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2955</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4434423</v>
+      </c>
+      <c r="G5">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2543</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5878647</v>
+      </c>
+      <c r="J5">
+        <v>43.3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1353</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2803674</v>
+      </c>
+      <c r="D6">
+        <v>48.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2521</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4360255</v>
+      </c>
+      <c r="G6">
+        <v>57.8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2958</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7130904</v>
+      </c>
+      <c r="J6">
+        <v>41.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>927</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3126386</v>
+      </c>
+      <c r="D7">
+        <v>29.7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2212</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4422011</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3569</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10807426</v>
+      </c>
+      <c r="J7">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>517</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1273933</v>
+      </c>
+      <c r="D8">
+        <v>40.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2700416</v>
+      </c>
+      <c r="G8">
+        <v>37.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3017</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12790736</v>
+      </c>
+      <c r="J8">
+        <v>23.6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>144</v>
+      </c>
+      <c r="C9" s="1">
+        <v>619402</v>
+      </c>
+      <c r="D9">
+        <v>23.2</v>
+      </c>
+      <c r="E9">
+        <v>202</v>
+      </c>
+      <c r="F9" s="1">
+        <v>631625</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1164</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6147133</v>
+      </c>
+      <c r="J9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K9">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1022749</v>
+      </c>
+      <c r="D10">
+        <v>6.5</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <v>376612</v>
+      </c>
+      <c r="G10">
+        <v>26.6</v>
+      </c>
+      <c r="H10">
+        <v>967</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6685022</v>
+      </c>
+      <c r="J10">
+        <v>14.5</v>
+      </c>
+      <c r="K10">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>86</v>
+      </c>
+      <c r="C11" s="1">
+        <v>870902</v>
+      </c>
+      <c r="D11">
+        <v>9.9</v>
+      </c>
+      <c r="E11">
+        <v>150</v>
+      </c>
+      <c r="F11" s="1">
+        <v>619592</v>
+      </c>
+      <c r="G11">
+        <v>24.2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1463</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14704120</v>
+      </c>
+      <c r="J11">
+        <v>9.9</v>
+      </c>
+      <c r="K11">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1">
+        <v>65554</v>
+      </c>
+      <c r="D12">
+        <v>94.6</v>
+      </c>
+      <c r="E12">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1">
+        <v>432586</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>817</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8529292</v>
+      </c>
+      <c r="J12">
+        <v>9.6</v>
+      </c>
+      <c r="K12">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1">
+        <v>149619</v>
+      </c>
+      <c r="G13">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H13">
+        <v>323</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2236356</v>
+      </c>
+      <c r="J13">
+        <v>14.4</v>
+      </c>
+      <c r="K13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <f>SUM(B4:B13)</f>
+        <v>6288</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C4:C13)</f>
+        <v>14348023</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
+        <v>43.824853082546632</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E4:E13)</f>
+        <v>11842</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(F4:F13)</f>
+        <v>22121201</v>
+      </c>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
+        <v>53.532355679965121</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H4:H13)</f>
+        <v>17672</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I4:I13)</f>
+        <v>77699315</v>
+      </c>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
+        <v>22.744087254823288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B15</f>
+        <v>6288</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15</f>
+        <v>14348023</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
+        <v>43.824853082546632</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
+        <v>29514</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
+        <v>99820516</v>
+      </c>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
+        <v>29.567068156610212</v>
+      </c>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
+        <v>0.67466439878118789</v>
+      </c>
+      <c r="I18" s="7">
+        <f>1-H18</f>
+        <v>0.32533560121881211</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{39234412-8662-6B46-AF0B-97B19FB1662E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C97BFB-9A25-A44E-986F-C0C9B7E90C2E}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9995</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10732375</v>
+      </c>
+      <c r="D3">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1765</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2157910</v>
+      </c>
+      <c r="D4">
+        <v>81.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2663</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4017995</v>
+      </c>
+      <c r="G4">
+        <v>66.3</v>
+      </c>
+      <c r="H4">
+        <v>773</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2763677</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1769</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2410076</v>
+      </c>
+      <c r="D5">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3177</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4460592</v>
+      </c>
+      <c r="G5">
+        <v>71.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2691</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5851101</v>
+      </c>
+      <c r="J5">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1558</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2804490</v>
+      </c>
+      <c r="D6">
+        <v>55.6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2916</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4390769</v>
+      </c>
+      <c r="G6">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3188</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7099275</v>
+      </c>
+      <c r="J6">
+        <v>44.9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1028</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3126921</v>
+      </c>
+      <c r="D7">
+        <v>32.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2426</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4454355</v>
+      </c>
+      <c r="G7">
+        <v>54.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3596</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10774282</v>
+      </c>
+      <c r="J7">
+        <v>33.4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>504</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1274324</v>
+      </c>
+      <c r="D8">
+        <v>39.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2721557</v>
+      </c>
+      <c r="G8">
+        <v>37.1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2900</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12769012</v>
+      </c>
+      <c r="J8">
+        <v>22.7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>137</v>
+      </c>
+      <c r="C9" s="1">
+        <v>619549</v>
+      </c>
+      <c r="D9">
+        <v>22.1</v>
+      </c>
+      <c r="E9">
+        <v>189</v>
+      </c>
+      <c r="F9" s="1">
+        <v>636637</v>
+      </c>
+      <c r="G9">
+        <v>29.7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1066</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6141947</v>
+      </c>
+      <c r="J9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K9">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1022845</v>
+      </c>
+      <c r="D10">
+        <v>8.4</v>
+      </c>
+      <c r="E10">
+        <v>104</v>
+      </c>
+      <c r="F10" s="1">
+        <v>378620</v>
+      </c>
+      <c r="G10">
+        <v>27.5</v>
+      </c>
+      <c r="H10">
+        <v>921</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6682885</v>
+      </c>
+      <c r="J10">
+        <v>13.8</v>
+      </c>
+      <c r="K10">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11" s="1">
+        <v>871052</v>
+      </c>
+      <c r="D11">
+        <v>12.1</v>
+      </c>
+      <c r="E11">
+        <v>117</v>
+      </c>
+      <c r="F11" s="1">
+        <v>622412</v>
+      </c>
+      <c r="G11">
+        <v>18.8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1317</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14701120</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1">
+        <v>65672</v>
+      </c>
+      <c r="D12">
+        <v>100.5</v>
+      </c>
+      <c r="E12">
+        <v>121</v>
+      </c>
+      <c r="F12" s="1">
+        <v>434143</v>
+      </c>
+      <c r="G12">
+        <v>27.9</v>
+      </c>
+      <c r="H12">
+        <v>716</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8527597</v>
+      </c>
+      <c r="J12">
+        <v>8.4</v>
+      </c>
+      <c r="K12">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>150016</v>
+      </c>
+      <c r="G13">
+        <v>23.3</v>
+      </c>
+      <c r="H13">
+        <v>328</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2235898</v>
+      </c>
+      <c r="J13">
+        <v>14.7</v>
+      </c>
+      <c r="K13">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <f>SUM(B4:B13)</f>
+        <v>7049</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C4:C13)</f>
+        <v>14352839</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
+        <v>49.112234868655605</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E4:E13)</f>
+        <v>12758</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(F4:F13)</f>
+        <v>22267096</v>
+      </c>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
+        <v>57.295302449856962</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H4:H13)</f>
+        <v>17496</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I4:I13)</f>
+        <v>77546794</v>
+      </c>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
+        <v>22.561861164756856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B15</f>
+        <v>7049</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15</f>
+        <v>14352839</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
+        <v>49.112234868655605</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
+        <v>30254</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
+        <v>99813890</v>
+      </c>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
+        <v>30.310410705363754</v>
+      </c>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
+        <v>0.61716618652002042</v>
+      </c>
+      <c r="I18" s="7">
+        <f>1-H18</f>
+        <v>0.38283381347997958</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{E7F01B87-E1C0-CE4C-85F8-A6E821FCCF5F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C976D44-D8EA-CD4C-B4BE-A813CBA42020}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>16473</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10735254</v>
+      </c>
+      <c r="D3">
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2821</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2158560</v>
+      </c>
+      <c r="D4">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4352</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4030454</v>
+      </c>
+      <c r="G4">
+        <v>108</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1211</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2749946</v>
+      </c>
+      <c r="J4">
+        <v>44</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2410788</v>
+      </c>
+      <c r="D5">
+        <v>107.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4251</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4478804</v>
+      </c>
+      <c r="G5">
+        <v>94.9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3543</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5831770</v>
+      </c>
+      <c r="J5">
+        <v>60.8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2406</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2804906</v>
+      </c>
+      <c r="D6">
+        <v>85.8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4298</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4411473</v>
+      </c>
+      <c r="G6">
+        <v>97.4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4680</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7077838</v>
+      </c>
+      <c r="J6">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1725</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3127248</v>
+      </c>
+      <c r="D7">
+        <v>55.2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3366</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4476236</v>
+      </c>
+      <c r="G7">
+        <v>75.2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5339</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10751876</v>
+      </c>
+      <c r="J7">
+        <v>49.7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>901</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1274588</v>
+      </c>
+      <c r="D8">
+        <v>70.7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1613</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2736618</v>
+      </c>
+      <c r="G8">
+        <v>58.9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4084</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12753557</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>207</v>
+      </c>
+      <c r="C9" s="1">
+        <v>619646</v>
+      </c>
+      <c r="D9">
+        <v>33.4</v>
+      </c>
+      <c r="E9">
+        <v>293</v>
+      </c>
+      <c r="F9" s="1">
+        <v>640613</v>
+      </c>
+      <c r="G9">
+        <v>45.7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1552</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6137834</v>
+      </c>
+      <c r="J9">
+        <v>25.3</v>
+      </c>
+      <c r="K9">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>127</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1022931</v>
+      </c>
+      <c r="D10">
+        <v>12.4</v>
+      </c>
+      <c r="E10">
+        <v>210</v>
+      </c>
+      <c r="F10" s="1">
+        <v>380447</v>
+      </c>
+      <c r="G10">
+        <v>55.2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6680968</v>
+      </c>
+      <c r="J10">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>180</v>
+      </c>
+      <c r="C11" s="1">
+        <v>871157</v>
+      </c>
+      <c r="D11">
+        <v>20.7</v>
+      </c>
+      <c r="E11">
+        <v>223</v>
+      </c>
+      <c r="F11" s="1">
+        <v>625053</v>
+      </c>
+      <c r="G11">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2127</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14698282</v>
+      </c>
+      <c r="J11">
+        <v>14.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>118</v>
+      </c>
+      <c r="C12" s="1">
+        <v>65782</v>
+      </c>
+      <c r="D12">
+        <v>179.4</v>
+      </c>
+      <c r="E12">
+        <v>182</v>
+      </c>
+      <c r="F12" s="1">
+        <v>435957</v>
+      </c>
+      <c r="G12">
+        <v>41.7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1239</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8525639</v>
+      </c>
+      <c r="J12">
+        <v>14.5</v>
+      </c>
+      <c r="K12">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1">
+        <v>150660</v>
+      </c>
+      <c r="G13">
+        <v>62.4</v>
+      </c>
+      <c r="H13">
+        <v>504</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2235187</v>
+      </c>
+      <c r="J13">
+        <v>22.5</v>
+      </c>
+      <c r="K13">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <f>SUM(B4:B13)</f>
+        <v>11138</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C4:C13)</f>
+        <v>14355606</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
+        <v>77.586414673124921</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E4:E13)</f>
+        <v>18882</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(F4:F13)</f>
+        <v>22366315</v>
+      </c>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
+        <v>84.421595600348112</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H4:H13)</f>
+        <v>25679</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I4:I13)</f>
+        <v>77442897</v>
+      </c>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
+        <v>33.158625251325503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B15</f>
+        <v>11138</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15</f>
+        <v>14355606</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
+        <v>77.586414673124921</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
+        <v>44561</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
+        <v>99809212</v>
+      </c>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
+        <v>44.646179553045663</v>
+      </c>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
+        <v>0.57543810654406491</v>
+      </c>
+      <c r="I18" s="7">
+        <f>1-H18</f>
+        <v>0.42456189345593509</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{4A3C8A0A-50D9-324D-95A5-1BE97037CAD8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53529764-596A-B04D-8640-EA9B8577167F}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="20"/>
   <cols>
@@ -529,8 +2829,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>25</v>
+      <c r="A1" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -929,6 +3229,38 @@
         <v>330</v>
       </c>
     </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>22</v>
@@ -971,6 +3303,24 @@
       </c>
     </row>
     <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
       <c r="H17" t="s">
         <v>19</v>
       </c>
@@ -1148,11 +3498,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{7803ABC1-1279-B143-BDE5-74B0F0B7E193}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF1FB26-5429-154F-8F37-227FC0E69C75}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1161,8 +3515,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>24</v>
+      <c r="A1" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1552,6 +3906,38 @@
         <v>412</v>
       </c>
     </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>22</v>
@@ -1594,6 +3980,24 @@
       </c>
     </row>
     <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
       <c r="H17" t="s">
         <v>19</v>
       </c>
@@ -1641,11 +4045,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{F57F6F08-F694-8C4B-A326-794D9FC29BBC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC594148-9F31-7A42-8E4A-6FB3022054F1}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1654,8 +4062,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>24</v>
+      <c r="A1" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2045,6 +4453,38 @@
         <v>442</v>
       </c>
     </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>22</v>
@@ -2087,6 +4527,24 @@
       </c>
     </row>
     <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
       <c r="H17" t="s">
         <v>19</v>
       </c>
@@ -2134,6 +4592,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{D6A1243F-4514-4D48-973A-D08DB0E194AE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/CoVid19-ADB-infection_per_vax.xlsx
+++ b/data/CoVid19-ADB-infection_per_vax.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6A97CA-900E-1941-BD3F-2A840AD189FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29681C78-A783-6B4E-B2FF-A2C62B59D7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{82298470-7951-F644-8280-A9DDA1B95F75}"/>
   </bookViews>
   <sheets>
     <sheet name="有効率" sheetId="7" r:id="rId1"/>
-    <sheet name="7月1日〜7月3日" sheetId="4" r:id="rId2"/>
-    <sheet name="6月27日〜6月29日" sheetId="5" r:id="rId3"/>
-    <sheet name="6月20日〜6月26日" sheetId="6" r:id="rId4"/>
-    <sheet name="6月13日〜6月19日" sheetId="1" r:id="rId5"/>
-    <sheet name="6月6日〜6月12日" sheetId="3" r:id="rId6"/>
-    <sheet name="5月30日〜6月5日" sheetId="2" r:id="rId7"/>
+    <sheet name="7月11日〜7月17日" sheetId="8" r:id="rId2"/>
+    <sheet name="7月1日〜7月3日" sheetId="4" r:id="rId3"/>
+    <sheet name="6月27日〜6月29日" sheetId="5" r:id="rId4"/>
+    <sheet name="6月20日〜6月26日" sheetId="6" r:id="rId5"/>
+    <sheet name="6月13日〜6月19日" sheetId="1" r:id="rId6"/>
+    <sheet name="6月6日〜6月12日" sheetId="3" r:id="rId7"/>
+    <sheet name="5月30日〜6月5日" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="46">
   <si>
     <t>0-11歳</t>
   </si>
@@ -198,6 +199,13 @@
   </si>
   <si>
     <t>有効率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10900000/000970022.pdf</t>
+  </si>
+  <si>
+    <t>7月11日〜7月17日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -889,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A542951-50C2-AB4A-B2F0-1D3D236CFA45}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1107,13 +1115,37 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="20">
+        <v>68115</v>
+      </c>
+      <c r="C8" s="21">
+        <v>14352257</v>
+      </c>
+      <c r="D8" s="22">
+        <v>474.59434429023952</v>
+      </c>
+      <c r="E8" s="20">
+        <v>333734</v>
+      </c>
+      <c r="F8" s="21">
+        <v>99825789</v>
+      </c>
+      <c r="G8" s="22">
+        <v>334.316415971428</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.70442562157246413</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0.29557437842753587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="24" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1">
@@ -1123,12 +1155,12 @@
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1">
@@ -1139,6 +1171,16 @@
     <row r="14" spans="1:9" ht="12" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12" customHeight="1">
+      <c r="A15" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1149,10 +1191,566 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32255ACD-1CC9-C940-900D-EAD55B741142}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>83304</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10702008</v>
+      </c>
+      <c r="D3">
+        <v>778.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>19220</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2177023</v>
+      </c>
+      <c r="D4">
+        <v>882.9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30575</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3846574</v>
+      </c>
+      <c r="G4">
+        <v>794.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11699</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2917567</v>
+      </c>
+      <c r="J4">
+        <v>401</v>
+      </c>
+      <c r="K4" s="1">
+        <v>19190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15855</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2403781</v>
+      </c>
+      <c r="D5">
+        <v>659.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31268</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4306981</v>
+      </c>
+      <c r="G5">
+        <v>726</v>
+      </c>
+      <c r="H5" s="1">
+        <v>31015</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6012155</v>
+      </c>
+      <c r="J5">
+        <v>515.9</v>
+      </c>
+      <c r="K5" s="1">
+        <v>19497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>13648</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2811723</v>
+      </c>
+      <c r="D6">
+        <v>485.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>26493</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4202769</v>
+      </c>
+      <c r="G6">
+        <v>630.4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>33461</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7281233</v>
+      </c>
+      <c r="J6">
+        <v>459.6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>20447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9882</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3141838</v>
+      </c>
+      <c r="D7">
+        <v>314.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>22562</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4249005</v>
+      </c>
+      <c r="G7">
+        <v>531</v>
+      </c>
+      <c r="H7" s="1">
+        <v>41775</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10965616</v>
+      </c>
+      <c r="J7">
+        <v>381</v>
+      </c>
+      <c r="K7" s="1">
+        <v>19536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5479</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1251177</v>
+      </c>
+      <c r="D8">
+        <v>437.9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10391</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2591318</v>
+      </c>
+      <c r="G8">
+        <v>401</v>
+      </c>
+      <c r="H8" s="1">
+        <v>35955</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12922885</v>
+      </c>
+      <c r="J8">
+        <v>278.2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>12128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1262</v>
+      </c>
+      <c r="C9" s="1">
+        <v>616652</v>
+      </c>
+      <c r="D9">
+        <v>204.7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1988</v>
+      </c>
+      <c r="F9" s="1">
+        <v>604356</v>
+      </c>
+      <c r="G9">
+        <v>328.9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13225</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6177151</v>
+      </c>
+      <c r="J9">
+        <v>214.1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>687</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1033539</v>
+      </c>
+      <c r="D10">
+        <v>66.5</v>
+      </c>
+      <c r="E10">
+        <v>953</v>
+      </c>
+      <c r="F10" s="1">
+        <v>363017</v>
+      </c>
+      <c r="G10">
+        <v>262.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10665</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6687911</v>
+      </c>
+      <c r="J10">
+        <v>159.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1179</v>
+      </c>
+      <c r="C11" s="1">
+        <v>865189</v>
+      </c>
+      <c r="D11">
+        <v>136.30000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1342</v>
+      </c>
+      <c r="F11" s="1">
+        <v>595475</v>
+      </c>
+      <c r="G11">
+        <v>225.4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>17222</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14734058</v>
+      </c>
+      <c r="J11">
+        <v>116.9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>626</v>
+      </c>
+      <c r="C12" s="1">
+        <v>51335</v>
+      </c>
+      <c r="D12">
+        <v>1219.4000000000001</v>
+      </c>
+      <c r="E12">
+        <v>812</v>
+      </c>
+      <c r="F12" s="1">
+        <v>413436</v>
+      </c>
+      <c r="G12">
+        <v>196.4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8732</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8562739</v>
+      </c>
+      <c r="J12">
+        <v>102</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>277</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>310</v>
+      </c>
+      <c r="F13" s="1">
+        <v>141847</v>
+      </c>
+      <c r="G13">
+        <v>218.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3291</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2249696</v>
+      </c>
+      <c r="J13">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <f>SUM(B4:B13)</f>
+        <v>68115</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C4:C13)</f>
+        <v>14352257</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
+        <v>474.59434429023952</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E4:E13)</f>
+        <v>126694</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(F4:F13)</f>
+        <v>21314778</v>
+      </c>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
+        <v>594.39511872936237</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H4:H13)</f>
+        <v>207040</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I4:I13)</f>
+        <v>78511011</v>
+      </c>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
+        <v>263.70823323113234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B15</f>
+        <v>68115</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15</f>
+        <v>14352257</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
+        <v>474.59434429023952</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
+        <v>333734</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
+        <v>99825789</v>
+      </c>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
+        <v>334.316415971428</v>
+      </c>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
+        <v>0.70442562157246413</v>
+      </c>
+      <c r="I18" s="7">
+        <f>1-H18</f>
+        <v>0.29557437842753587</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33C3266-9902-5243-AAA0-969E5D3E9A2A}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -1704,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C97BFB-9A25-A44E-986F-C0C9B7E90C2E}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2260,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C976D44-D8EA-CD4C-B4BE-A813CBA42020}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -2816,7 +3414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53529764-596A-B04D-8640-EA9B8577167F}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -3506,7 +4104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF1FB26-5429-154F-8F37-227FC0E69C75}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -4053,7 +4651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC594148-9F31-7A42-8E4A-6FB3022054F1}">
   <dimension ref="A1:K18"/>
   <sheetViews>

--- a/data/CoVid19-ADB-infection_per_vax.xlsx
+++ b/data/CoVid19-ADB-infection_per_vax.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29681C78-A783-6B4E-B2FF-A2C62B59D7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2FDCB7-1460-E44F-936E-9DBE7CB5221C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{82298470-7951-F644-8280-A9DDA1B95F75}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" activeTab="1" xr2:uid="{82298470-7951-F644-8280-A9DDA1B95F75}"/>
   </bookViews>
   <sheets>
-    <sheet name="有効率" sheetId="7" r:id="rId1"/>
-    <sheet name="7月11日〜7月17日" sheetId="8" r:id="rId2"/>
-    <sheet name="7月1日〜7月3日" sheetId="4" r:id="rId3"/>
-    <sheet name="6月27日〜6月29日" sheetId="5" r:id="rId4"/>
-    <sheet name="6月20日〜6月26日" sheetId="6" r:id="rId5"/>
-    <sheet name="6月13日〜6月19日" sheetId="1" r:id="rId6"/>
-    <sheet name="6月6日〜6月12日" sheetId="3" r:id="rId7"/>
-    <sheet name="5月30日〜6月5日" sheetId="2" r:id="rId8"/>
+    <sheet name="2回目未満vs3回目有効率" sheetId="9" r:id="rId1"/>
+    <sheet name="未接種vs2回目以降有効率" sheetId="7" r:id="rId2"/>
+    <sheet name="7月11日〜7月17日" sheetId="8" r:id="rId3"/>
+    <sheet name="7月1日〜7月3日" sheetId="4" r:id="rId4"/>
+    <sheet name="6月27日〜6月29日" sheetId="5" r:id="rId5"/>
+    <sheet name="6月20日〜6月26日" sheetId="6" r:id="rId6"/>
+    <sheet name="6月13日〜6月19日" sheetId="1" r:id="rId7"/>
+    <sheet name="6月6日〜6月12日" sheetId="3" r:id="rId8"/>
+    <sheet name="5月30日〜6月5日" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="52">
   <si>
     <t>0-11歳</t>
   </si>
@@ -208,12 +231,36 @@
     <t>7月11日〜7月17日</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>12歳〜89歳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回未満数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回以下人数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回以下陽性数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回接種陽性数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回接種人数</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -221,6 +268,7 @@
     <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="181" formatCode="#,##0_ "/>
     <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="186" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -497,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,6 +628,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -896,11 +962,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27CEF28-51B1-6241-AED7-DA726D1177A0}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" thickBot="1">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="31" cm="1">
+        <f t="array" ref="B2:I2">'5月30日〜6月5日'!B21:I21</f>
+        <v>36893</v>
+      </c>
+      <c r="C2" s="32">
+        <v>38736386</v>
+      </c>
+      <c r="D2" s="33">
+        <v>95.241202935142169</v>
+      </c>
+      <c r="E2" s="15">
+        <v>25130</v>
+      </c>
+      <c r="F2" s="16">
+        <v>75403563</v>
+      </c>
+      <c r="G2" s="33">
+        <v>33.327337595439623</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.34992562639234032</v>
+      </c>
+      <c r="I2" s="26">
+        <v>0.65007437360765974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="29" cm="1">
+        <f t="array" ref="B3:I3">'6月6日〜6月12日'!B21:I21</f>
+        <v>29171</v>
+      </c>
+      <c r="C3" s="28">
+        <v>38233952</v>
+      </c>
+      <c r="D3" s="30">
+        <v>76.296062724564806</v>
+      </c>
+      <c r="E3" s="20">
+        <v>20410</v>
+      </c>
+      <c r="F3" s="21">
+        <v>75908669</v>
+      </c>
+      <c r="G3" s="30">
+        <v>26.887574593094236</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0.352411037122068</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.647588962877932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="29" cm="1">
+        <f t="array" ref="B4:I4">'6月13日〜6月19日'!B21:I21</f>
+        <v>26346</v>
+      </c>
+      <c r="C4" s="28">
+        <v>37536455</v>
+      </c>
+      <c r="D4" s="30">
+        <v>70.187768131007573</v>
+      </c>
+      <c r="E4" s="20">
+        <v>20284</v>
+      </c>
+      <c r="F4" s="21">
+        <v>76613567</v>
+      </c>
+      <c r="G4" s="30">
+        <v>26.475728509025043</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.37721285651379172</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.62278714348620823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="29" cm="1">
+        <f t="array" ref="B5:I5">'6月20日〜6月26日'!B21:I21</f>
+        <v>30020</v>
+      </c>
+      <c r="C5" s="28">
+        <v>36721921</v>
+      </c>
+      <c r="D5" s="30">
+        <v>81.749535924332491</v>
+      </c>
+      <c r="E5" s="20">
+        <v>25679</v>
+      </c>
+      <c r="F5" s="21">
+        <v>77442897</v>
+      </c>
+      <c r="G5" s="30">
+        <v>33.158625251325503</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.40561239738433724</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.5943876026156627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="29" cm="1">
+        <f t="array" ref="B6:I6">'6月27日〜6月29日'!B21:I21</f>
+        <v>19807</v>
+      </c>
+      <c r="C6" s="28">
+        <v>36619935</v>
+      </c>
+      <c r="D6" s="30">
+        <v>54.088026098353261</v>
+      </c>
+      <c r="E6" s="20">
+        <v>17496</v>
+      </c>
+      <c r="F6" s="21">
+        <v>77546794</v>
+      </c>
+      <c r="G6" s="30">
+        <v>22.561861164756856</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.41713227108215295</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.58286772891784699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="29" cm="1">
+        <f t="array" ref="B7:I7">'7月1日〜7月3日'!B21:I21</f>
+        <v>18130</v>
+      </c>
+      <c r="C7" s="28">
+        <v>36469224</v>
+      </c>
+      <c r="D7" s="30">
+        <v>49.713149915117462</v>
+      </c>
+      <c r="E7" s="20">
+        <v>17672</v>
+      </c>
+      <c r="F7" s="21">
+        <v>77699315</v>
+      </c>
+      <c r="G7" s="30">
+        <v>22.744087254823288</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0.45750646043667714</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.5424935395633228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="29" cm="1">
+        <f t="array" ref="B8:I8">'7月11日〜7月17日'!B21:I21</f>
+        <v>194809</v>
+      </c>
+      <c r="C8" s="28">
+        <v>35667035</v>
+      </c>
+      <c r="D8" s="30">
+        <v>546.18781740618476</v>
+      </c>
+      <c r="E8" s="20">
+        <v>207040</v>
+      </c>
+      <c r="F8" s="21">
+        <v>78511011</v>
+      </c>
+      <c r="G8" s="30">
+        <v>263.70823323113234</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.48281602926163369</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0.51718397073836631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A542951-50C2-AB4A-B2F0-1D3D236CFA45}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1190,12 +1558,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32255ACD-1CC9-C940-900D-EAD55B741142}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:I18"/>
+      <selection activeCell="A20" sqref="A20:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1738,18 +2106,81 @@
       </c>
       <c r="J18" s="4"/>
     </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>194809</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>35667035</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>546.18781740618476</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>207040</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>78511011</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>263.70823323113234</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.48281602926163369</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.51718397073836631</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33C3266-9902-5243-AAA0-969E5D3E9A2A}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:K18"/>
+      <selection activeCell="A20" sqref="A20:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2291,6 +2722,69 @@
         <v>0.32533560121881211</v>
       </c>
       <c r="J18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>18130</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>36469224</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>49.713149915117462</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>17672</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>77699315</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>22.744087254823288</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.45750646043667714</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.5424935395633228</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2302,11 +2796,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C97BFB-9A25-A44E-986F-C0C9B7E90C2E}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -2847,6 +3343,69 @@
         <v>0.38283381347997958</v>
       </c>
       <c r="J18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>19807</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>36619935</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>54.088026098353261</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>17496</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>77546794</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>22.561861164756856</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.41713227108215295</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.58286772891784699</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2858,11 +3417,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C976D44-D8EA-CD4C-B4BE-A813CBA42020}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -3403,6 +3964,69 @@
         <v>0.42456189345593509</v>
       </c>
       <c r="J18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>30020</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>36721921</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>81.749535924332491</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>25679</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>77442897</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>33.158625251325503</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.40561239738433724</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.5943876026156627</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3414,11 +4038,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53529764-596A-B04D-8640-EA9B8577167F}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="20"/>
   <cols>
@@ -3977,26 +4603,69 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>26346</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>37536455</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>70.187768131007573</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>20284</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>76613567</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>26.475728509025043</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.37721285651379172</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.62278714348620823</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
@@ -4104,11 +4773,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF1FB26-5429-154F-8F37-227FC0E69C75}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -4640,6 +5311,69 @@
         <v>0.49718705787596129</v>
       </c>
       <c r="J18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>29171</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>38233952</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>76.296062724564806</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>20410</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>75908669</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>26.887574593094236</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.352411037122068</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.647588962877932</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4651,11 +5385,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC594148-9F31-7A42-8E4A-6FB3022054F1}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -5187,6 +5923,69 @@
         <v>0.50222408879327296</v>
       </c>
       <c r="J18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>36893</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>38736386</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>95.241202935142169</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>25130</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>75403563</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>33.327337595439623</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.34992562639234032</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.65007437360765974</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/CoVid19-ADB-infection_per_vax.xlsx
+++ b/data/CoVid19-ADB-infection_per_vax.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2FDCB7-1460-E44F-936E-9DBE7CB5221C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F248823-43EB-AE4E-B938-591ADFA798D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" activeTab="1" xr2:uid="{82298470-7951-F644-8280-A9DDA1B95F75}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="60160" windowHeight="33340" xr2:uid="{82298470-7951-F644-8280-A9DDA1B95F75}"/>
   </bookViews>
   <sheets>
-    <sheet name="2回目未満vs3回目有効率" sheetId="9" r:id="rId1"/>
-    <sheet name="未接種vs2回目以降有効率" sheetId="7" r:id="rId2"/>
+    <sheet name="未接種vs2回目以降有効率" sheetId="7" r:id="rId1"/>
+    <sheet name="7月18日〜7月24日" sheetId="10" r:id="rId2"/>
     <sheet name="7月11日〜7月17日" sheetId="8" r:id="rId3"/>
     <sheet name="7月1日〜7月3日" sheetId="4" r:id="rId4"/>
     <sheet name="6月27日〜6月29日" sheetId="5" r:id="rId5"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="54">
   <si>
     <t>0-11歳</t>
   </si>
@@ -179,14 +179,6 @@
     <t>陽性数</t>
   </si>
   <si>
-    <t>未接種人数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2〜3回接種人数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10万人あたり</t>
   </si>
   <si>
@@ -240,19 +232,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2回以下人数</t>
+    <t>https://www.mhlw.go.jp/content/10900000/000972876.pdf</t>
+  </si>
+  <si>
+    <t>7月18日〜7月24日</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2回以下陽性数</t>
+    <t>https://www.mhlw.go.jp/content/10900000/000972876.pdf</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3回接種陽性数</t>
+    <t>未接種 vs 2〜3回接種</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3回接種人数</t>
+    <t>未接種+2回以下接種</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回接種</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">▽カイ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">▽セッシュ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回以下接種 vs 3回接種</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人数</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -268,9 +281,9 @@
     <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="181" formatCode="#,##0_ "/>
     <numFmt numFmtId="182" formatCode="0.00_ "/>
-    <numFmt numFmtId="186" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="183" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,6 +314,29 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -316,22 +352,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -528,12 +553,68 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -545,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,79 +654,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,313 +1094,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27CEF28-51B1-6241-AED7-DA726D1177A0}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A542951-50C2-AB4A-B2F0-1D3D236CFA45}">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21" thickBot="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="31" cm="1">
-        <f t="array" ref="B2:I2">'5月30日〜6月5日'!B21:I21</f>
-        <v>36893</v>
-      </c>
-      <c r="C2" s="32">
-        <v>38736386</v>
-      </c>
-      <c r="D2" s="33">
-        <v>95.241202935142169</v>
-      </c>
-      <c r="E2" s="15">
-        <v>25130</v>
-      </c>
-      <c r="F2" s="16">
-        <v>75403563</v>
-      </c>
-      <c r="G2" s="33">
-        <v>33.327337595439623</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0.34992562639234032</v>
-      </c>
-      <c r="I2" s="26">
-        <v>0.65007437360765974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="29" cm="1">
-        <f t="array" ref="B3:I3">'6月6日〜6月12日'!B21:I21</f>
-        <v>29171</v>
-      </c>
-      <c r="C3" s="28">
-        <v>38233952</v>
-      </c>
-      <c r="D3" s="30">
-        <v>76.296062724564806</v>
-      </c>
-      <c r="E3" s="20">
-        <v>20410</v>
-      </c>
-      <c r="F3" s="21">
-        <v>75908669</v>
-      </c>
-      <c r="G3" s="30">
-        <v>26.887574593094236</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0.352411037122068</v>
-      </c>
-      <c r="I3" s="27">
-        <v>0.647588962877932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="29" cm="1">
-        <f t="array" ref="B4:I4">'6月13日〜6月19日'!B21:I21</f>
-        <v>26346</v>
-      </c>
-      <c r="C4" s="28">
-        <v>37536455</v>
-      </c>
-      <c r="D4" s="30">
-        <v>70.187768131007573</v>
-      </c>
-      <c r="E4" s="20">
-        <v>20284</v>
-      </c>
-      <c r="F4" s="21">
-        <v>76613567</v>
-      </c>
-      <c r="G4" s="30">
-        <v>26.475728509025043</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0.37721285651379172</v>
-      </c>
-      <c r="I4" s="27">
-        <v>0.62278714348620823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="29" cm="1">
-        <f t="array" ref="B5:I5">'6月20日〜6月26日'!B21:I21</f>
-        <v>30020</v>
-      </c>
-      <c r="C5" s="28">
-        <v>36721921</v>
-      </c>
-      <c r="D5" s="30">
-        <v>81.749535924332491</v>
-      </c>
-      <c r="E5" s="20">
-        <v>25679</v>
-      </c>
-      <c r="F5" s="21">
-        <v>77442897</v>
-      </c>
-      <c r="G5" s="30">
-        <v>33.158625251325503</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.40561239738433724</v>
-      </c>
-      <c r="I5" s="27">
-        <v>0.5943876026156627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="29" cm="1">
-        <f t="array" ref="B6:I6">'6月27日〜6月29日'!B21:I21</f>
-        <v>19807</v>
-      </c>
-      <c r="C6" s="28">
-        <v>36619935</v>
-      </c>
-      <c r="D6" s="30">
-        <v>54.088026098353261</v>
-      </c>
-      <c r="E6" s="20">
-        <v>17496</v>
-      </c>
-      <c r="F6" s="21">
-        <v>77546794</v>
-      </c>
-      <c r="G6" s="30">
-        <v>22.561861164756856</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0.41713227108215295</v>
-      </c>
-      <c r="I6" s="27">
-        <v>0.58286772891784699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="29" cm="1">
-        <f t="array" ref="B7:I7">'7月1日〜7月3日'!B21:I21</f>
-        <v>18130</v>
-      </c>
-      <c r="C7" s="28">
-        <v>36469224</v>
-      </c>
-      <c r="D7" s="30">
-        <v>49.713149915117462</v>
-      </c>
-      <c r="E7" s="20">
-        <v>17672</v>
-      </c>
-      <c r="F7" s="21">
-        <v>77699315</v>
-      </c>
-      <c r="G7" s="30">
-        <v>22.744087254823288</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0.45750646043667714</v>
-      </c>
-      <c r="I7" s="27">
-        <v>0.5424935395633228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="29" cm="1">
-        <f t="array" ref="B8:I8">'7月11日〜7月17日'!B21:I21</f>
-        <v>194809</v>
-      </c>
-      <c r="C8" s="28">
-        <v>35667035</v>
-      </c>
-      <c r="D8" s="30">
-        <v>546.18781740618476</v>
-      </c>
-      <c r="E8" s="20">
-        <v>207040</v>
-      </c>
-      <c r="F8" s="21">
-        <v>78511011</v>
-      </c>
-      <c r="G8" s="30">
-        <v>263.70823323113234</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0.48281602926163369</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0.51718397073836631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A542951-50C2-AB4A-B2F0-1D3D236CFA45}">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection sqref="A1:I16"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection sqref="A1:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1281,280 +1111,1297 @@
     <col min="7" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" thickBot="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="47"/>
+      <c r="B2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" thickBot="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="H3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10">
+        <f t="array" ref="B4:I4">'5月30日〜6月5日'!B18:I18</f>
+        <v>13817</v>
+      </c>
+      <c r="C4" s="11">
+        <v>14356146</v>
+      </c>
+      <c r="D4" s="12">
+        <v>96.244493473387635</v>
+      </c>
+      <c r="E4" s="10">
+        <v>47384</v>
+      </c>
+      <c r="F4" s="11">
+        <v>97405114</v>
+      </c>
+      <c r="G4" s="12">
+        <v>48.646316455211995</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.50544519171544178</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0.49455480828455822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="15">
+        <f t="array" ref="B5:I5">'6月6日〜6月12日'!B18:I18</f>
+        <v>10961</v>
+      </c>
+      <c r="C5" s="16">
+        <v>14345329</v>
+      </c>
+      <c r="D5" s="17">
+        <v>76.408146512359522</v>
+      </c>
+      <c r="E5" s="15">
+        <v>37934</v>
+      </c>
+      <c r="F5" s="16">
+        <v>97418478</v>
+      </c>
+      <c r="G5" s="17">
+        <v>38.939224650994852</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.50962137453100209</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0.49037862546899791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="array" ref="B6:I6">'6月13日〜6月19日'!B18:I18</f>
+        <v>9855</v>
+      </c>
+      <c r="C6" s="16">
+        <v>14343304</v>
+      </c>
+      <c r="D6" s="17">
+        <v>68.708018738220986</v>
+      </c>
+      <c r="E6" s="15">
+        <v>36175</v>
+      </c>
+      <c r="F6" s="16">
+        <v>97425537</v>
+      </c>
+      <c r="G6" s="17">
+        <v>37.130921844444131</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.54041613375454378</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0.45958386624545622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="array" ref="B7:I7">'6月20日〜6月26日'!B18:I18</f>
+        <v>11085</v>
+      </c>
+      <c r="C7" s="16">
+        <v>14355606</v>
+      </c>
+      <c r="D7" s="17">
+        <v>77.217220924006966</v>
+      </c>
+      <c r="E7" s="15">
+        <v>43963</v>
+      </c>
+      <c r="F7" s="16">
+        <v>97423365</v>
+      </c>
+      <c r="G7" s="17">
+        <v>45.125725230287415</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.58439975811480871</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0.41560024188519129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="array" ref="B8:I8">'6月27日〜6月29日'!B18:I18</f>
+        <v>7018</v>
+      </c>
+      <c r="C8" s="16">
+        <v>14352839</v>
+      </c>
+      <c r="D8" s="17">
+        <v>48.896249724531849</v>
+      </c>
+      <c r="E8" s="15">
+        <v>29891</v>
+      </c>
+      <c r="F8" s="16">
+        <v>97427976</v>
+      </c>
+      <c r="G8" s="17">
+        <v>30.680099522954269</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.62745301931738307</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.37254698068261693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="array" ref="B9:I9">'7月1日〜7月3日'!B18:I18</f>
+        <v>6257</v>
+      </c>
+      <c r="C9" s="16">
+        <v>14348023</v>
+      </c>
+      <c r="D9" s="17">
+        <v>43.608795441713468</v>
+      </c>
+      <c r="E9" s="15">
+        <v>29162</v>
+      </c>
+      <c r="F9" s="16">
+        <v>97434541</v>
+      </c>
+      <c r="G9" s="17">
+        <v>29.929837715353944</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.68632571508097462</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0.31367428491902538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="array" ref="B10:I10">'7月11日〜7月17日'!B18:I18</f>
+        <v>67838</v>
+      </c>
+      <c r="C10" s="16">
+        <v>14352257</v>
+      </c>
+      <c r="D10" s="17">
+        <v>472.6643342576711</v>
+      </c>
+      <c r="E10" s="15">
+        <v>330133</v>
+      </c>
+      <c r="F10" s="16">
+        <v>97434246</v>
+      </c>
+      <c r="G10" s="17">
+        <v>338.82645327803942</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.71684370645433448</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.28315629354566552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="array" ref="B11:I11">'7月18日〜7月24日'!B18:I18</f>
+        <v>105926</v>
+      </c>
+      <c r="C11" s="16">
+        <v>14356722</v>
+      </c>
+      <c r="D11" s="17">
+        <v>737.81466270643114</v>
+      </c>
+      <c r="E11" s="15">
+        <v>530360</v>
+      </c>
+      <c r="F11" s="16">
+        <v>97429416</v>
+      </c>
+      <c r="G11" s="17">
+        <v>544.3530524703134</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.73779104697314191</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0.26220895302685809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="30"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="45"/>
+      <c r="B14" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" thickBot="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="C15" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I15" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="B16" s="22" cm="1">
+        <f t="array" ref="B16:I16">'5月30日〜6月5日'!B21:I21</f>
+        <v>36692</v>
+      </c>
+      <c r="C16" s="23">
+        <v>38569727</v>
+      </c>
+      <c r="D16" s="24">
+        <v>95.131604120506211</v>
+      </c>
+      <c r="E16" s="10">
+        <v>24509</v>
+      </c>
+      <c r="F16" s="11">
+        <v>73191533</v>
+      </c>
+      <c r="G16" s="24">
+        <v>33.48611375580834</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.35199778312778601</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0.64800221687221393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="B17" s="15">
+        <f t="array" ref="B17:I17">'6月6日〜6月12日'!B21:I21</f>
+        <v>29034</v>
+      </c>
+      <c r="C17" s="16">
+        <v>38068748</v>
+      </c>
+      <c r="D17" s="17">
+        <v>76.267283599660288</v>
+      </c>
+      <c r="E17" s="15">
+        <v>19861</v>
+      </c>
+      <c r="F17" s="16">
+        <v>73695059</v>
+      </c>
+      <c r="G17" s="17">
+        <v>26.950246420184019</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.35336575721839475</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0.6466342427816052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="15">
+        <f t="array" ref="B18:I18">'6月13日〜6月19日'!B21:I21</f>
+        <v>26208</v>
+      </c>
+      <c r="C18" s="16">
+        <v>37376741</v>
+      </c>
+      <c r="D18" s="17">
+        <v>70.118472875952449</v>
+      </c>
+      <c r="E18" s="15">
+        <v>19822</v>
+      </c>
+      <c r="F18" s="16">
+        <v>74392100</v>
+      </c>
+      <c r="G18" s="17">
+        <v>26.645302390979687</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.38000403172097397</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0.61999596827902603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="array" ref="B19:I19">'6月20日〜6月26日'!B21:I21</f>
+        <v>29873</v>
+      </c>
+      <c r="C19" s="16">
+        <v>36571261</v>
+      </c>
+      <c r="D19" s="17">
+        <v>81.684358655284001</v>
+      </c>
+      <c r="E19" s="15">
+        <v>25175</v>
+      </c>
+      <c r="F19" s="16">
+        <v>75207710</v>
+      </c>
+      <c r="G19" s="17">
+        <v>33.473961645687659</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.4097964677295326</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0.5902035322704674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="array" ref="B20:I20">'6月27日〜6月29日'!B21:I21</f>
+        <v>19741</v>
+      </c>
+      <c r="C20" s="16">
+        <v>36469919</v>
+      </c>
+      <c r="D20" s="17">
+        <v>54.12954166418632</v>
+      </c>
+      <c r="E20" s="15">
+        <v>17168</v>
+      </c>
+      <c r="F20" s="16">
+        <v>75310896</v>
+      </c>
+      <c r="G20" s="17">
+        <v>22.796170158432322</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.42114101574805929</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0.57885898425194071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="array" ref="B21:I21">'7月1日〜7月3日'!B21:I21</f>
+        <v>18070</v>
+      </c>
+      <c r="C21" s="16">
+        <v>36319605</v>
+      </c>
+      <c r="D21" s="17">
+        <v>49.752743731656771</v>
+      </c>
+      <c r="E21" s="15">
+        <v>17349</v>
+      </c>
+      <c r="F21" s="16">
+        <v>75462959</v>
+      </c>
+      <c r="G21" s="17">
+        <v>22.990087096902734</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.46208681918932154</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0.53791318081067852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="15">
-        <v>13907</v>
-      </c>
-      <c r="C2" s="16">
-        <v>14356146</v>
-      </c>
-      <c r="D2" s="17">
-        <v>96.871402673112968</v>
-      </c>
-      <c r="E2" s="15">
-        <v>48116</v>
-      </c>
-      <c r="F2" s="16">
-        <v>99783803</v>
-      </c>
-      <c r="G2" s="17">
-        <v>48.220250735482587</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0.4977759112067271</v>
-      </c>
-      <c r="I2" s="26">
-        <v>0.50222408879327296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="20">
-        <v>11023</v>
-      </c>
-      <c r="C3" s="21">
-        <v>14345329</v>
-      </c>
-      <c r="D3" s="22">
-        <v>76.840342943685712</v>
-      </c>
-      <c r="E3" s="20">
-        <v>38558</v>
-      </c>
-      <c r="F3" s="21">
-        <v>99797292</v>
-      </c>
-      <c r="G3" s="22">
-        <v>38.636318909334733</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0.50281294212403871</v>
-      </c>
-      <c r="I3" s="27">
-        <v>0.49718705787596129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="20">
-        <v>9920</v>
-      </c>
-      <c r="C4" s="21">
-        <v>14343304</v>
-      </c>
-      <c r="D4" s="22">
-        <v>69.161191870436554</v>
-      </c>
-      <c r="E4" s="20">
-        <v>36710</v>
-      </c>
-      <c r="F4" s="21">
-        <v>99806718</v>
-      </c>
-      <c r="G4" s="22">
-        <v>36.78109122874875</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0.53181690821136773</v>
-      </c>
-      <c r="I4" s="27">
-        <v>0.46818309178863227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="20">
-        <v>11138</v>
-      </c>
-      <c r="C5" s="21">
-        <v>14355606</v>
-      </c>
-      <c r="D5" s="22">
-        <v>77.586414673124921</v>
-      </c>
-      <c r="E5" s="20">
-        <v>44561</v>
-      </c>
-      <c r="F5" s="21">
-        <v>99809212</v>
-      </c>
-      <c r="G5" s="22">
-        <v>44.646179553045663</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.57543810654406491</v>
-      </c>
-      <c r="I5" s="27">
-        <v>0.42456189345593509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="19" t="s">
+      <c r="B22" s="15">
+        <f t="array" ref="B22:I22">'7月11日〜7月17日'!B21:I21</f>
+        <v>194222</v>
+      </c>
+      <c r="C22" s="16">
+        <v>35525188</v>
+      </c>
+      <c r="D22" s="17">
+        <v>546.71631857373984</v>
+      </c>
+      <c r="E22" s="15">
+        <v>203749</v>
+      </c>
+      <c r="F22" s="16">
+        <v>76261315</v>
+      </c>
+      <c r="G22" s="17">
+        <v>267.17215668258535</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.48868516926580413</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0.51131483073419592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="array" ref="B23:I23">'7月18日〜7月24日'!B21:I21</f>
+        <v>298934</v>
+      </c>
+      <c r="C23" s="16">
+        <v>35143274</v>
+      </c>
+      <c r="D23" s="17">
+        <v>850.61511343536188</v>
+      </c>
+      <c r="E23" s="15">
+        <v>337352</v>
+      </c>
+      <c r="F23" s="16">
+        <v>76642864</v>
+      </c>
+      <c r="G23" s="17">
+        <v>440.16100442175542</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0.51746200775117457</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0.48253799224882543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="32"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="20">
-        <v>7049</v>
-      </c>
-      <c r="C6" s="21">
-        <v>14352839</v>
-      </c>
-      <c r="D6" s="22">
-        <v>49.112234868655605</v>
-      </c>
-      <c r="E6" s="20">
-        <v>30254</v>
-      </c>
-      <c r="F6" s="21">
-        <v>99813890</v>
-      </c>
-      <c r="G6" s="22">
-        <v>30.310410705363754</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0.61716618652002042</v>
-      </c>
-      <c r="I6" s="27">
-        <v>0.38283381347997958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="20">
-        <v>6288</v>
-      </c>
-      <c r="C7" s="21">
-        <v>14348023</v>
-      </c>
-      <c r="D7" s="22">
-        <v>43.824853082546632</v>
-      </c>
-      <c r="E7" s="20">
-        <v>29514</v>
-      </c>
-      <c r="F7" s="21">
-        <v>99820516</v>
-      </c>
-      <c r="G7" s="22">
-        <v>29.567068156610212</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0.67466439878118789</v>
-      </c>
-      <c r="I7" s="27">
-        <v>0.32533560121881211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="20">
-        <v>68115</v>
-      </c>
-      <c r="C8" s="21">
-        <v>14352257</v>
-      </c>
-      <c r="D8" s="22">
-        <v>474.59434429023952</v>
-      </c>
-      <c r="E8" s="20">
-        <v>333734</v>
-      </c>
-      <c r="F8" s="21">
-        <v>99825789</v>
-      </c>
-      <c r="G8" s="22">
-        <v>334.316415971428</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0.70442562157246413</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0.29557437842753587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="24" t="s">
+    </row>
+    <row r="26" spans="1:9" ht="12" customHeight="1">
+      <c r="A26" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12" customHeight="1">
+      <c r="A27" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12" customHeight="1">
+      <c r="A28" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12" customHeight="1">
+      <c r="A29" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12" customHeight="1">
+      <c r="A30" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12" customHeight="1">
+      <c r="A31" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12" customHeight="1">
+      <c r="A32" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="12" customHeight="1">
-      <c r="A13" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12" customHeight="1">
-      <c r="A14" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12" customHeight="1">
-      <c r="A15" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="12" customHeight="1">
-      <c r="A16" s="25" t="s">
-        <v>44</v>
-      </c>
+    <row r="33" spans="1:9" ht="12" customHeight="1">
+      <c r="A33" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H14:I14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47240E34-C12B-CF43-891B-FC20EA154E51}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>116148</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10689005</v>
+      </c>
+      <c r="D3">
+        <v>1086.5999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>28292</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2183017</v>
+      </c>
+      <c r="D4">
+        <v>1296</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44271</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3766661</v>
+      </c>
+      <c r="G4">
+        <v>1175.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18936</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2990448</v>
+      </c>
+      <c r="J4">
+        <v>633.20000000000005</v>
+      </c>
+      <c r="K4" s="1">
+        <v>31138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25208</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2404840</v>
+      </c>
+      <c r="D5">
+        <v>1048.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>48401</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4247454</v>
+      </c>
+      <c r="G5">
+        <v>1139.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>52240</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6071173</v>
+      </c>
+      <c r="J5">
+        <v>860.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>35646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21543</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2814164</v>
+      </c>
+      <c r="D6">
+        <v>765.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40603</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4130352</v>
+      </c>
+      <c r="G6">
+        <v>983</v>
+      </c>
+      <c r="H6" s="1">
+        <v>54567</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7351289</v>
+      </c>
+      <c r="J6">
+        <v>742.3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>35198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16056</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3148987</v>
+      </c>
+      <c r="D7">
+        <v>509.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35760</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4165890</v>
+      </c>
+      <c r="G7">
+        <v>858.4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>70422</v>
+      </c>
+      <c r="I7" s="1">
+        <v>11041685</v>
+      </c>
+      <c r="J7">
+        <v>637.79999999999995</v>
+      </c>
+      <c r="K7" s="1">
+        <v>34483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8628</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1242177</v>
+      </c>
+      <c r="D8">
+        <v>694.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16136</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2538268</v>
+      </c>
+      <c r="G8">
+        <v>635.70000000000005</v>
+      </c>
+      <c r="H8" s="1">
+        <v>59910</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12984816</v>
+      </c>
+      <c r="J8">
+        <v>461.4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>21653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2032</v>
+      </c>
+      <c r="C9" s="1">
+        <v>614619</v>
+      </c>
+      <c r="D9">
+        <v>330.6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3007</v>
+      </c>
+      <c r="F9" s="1">
+        <v>591522</v>
+      </c>
+      <c r="G9">
+        <v>508.3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>21441</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6192067</v>
+      </c>
+      <c r="J9">
+        <v>346.3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1232</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1037978</v>
+      </c>
+      <c r="D10">
+        <v>118.7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1497</v>
+      </c>
+      <c r="F10" s="1">
+        <v>356695</v>
+      </c>
+      <c r="G10">
+        <v>419.7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>17562</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6689832</v>
+      </c>
+      <c r="J10">
+        <v>262.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1783</v>
+      </c>
+      <c r="C11" s="1">
+        <v>864644</v>
+      </c>
+      <c r="D11">
+        <v>206.2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1962</v>
+      </c>
+      <c r="F11" s="1">
+        <v>584554</v>
+      </c>
+      <c r="G11">
+        <v>335.6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>27554</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14745494</v>
+      </c>
+      <c r="J11">
+        <v>186.9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>8343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1152</v>
+      </c>
+      <c r="C12" s="1">
+        <v>46296</v>
+      </c>
+      <c r="D12">
+        <v>2488.3000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1371</v>
+      </c>
+      <c r="F12" s="1">
+        <v>405156</v>
+      </c>
+      <c r="G12">
+        <v>338.4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14720</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8576060</v>
+      </c>
+      <c r="J12">
+        <v>171.6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>540</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>575</v>
+      </c>
+      <c r="F13" s="1">
+        <v>138716</v>
+      </c>
+      <c r="G13">
+        <v>414.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5688</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2255171</v>
+      </c>
+      <c r="J13">
+        <v>252.2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <f>SUM(B4:B12)</f>
+        <v>105926</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C4:C12)</f>
+        <v>14356722</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
+        <v>737.81466270643114</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E4:E12)</f>
+        <v>193008</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(F4:F12)</f>
+        <v>20786552</v>
+      </c>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
+        <v>928.52340301556501</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H4:H12)</f>
+        <v>337352</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I4:I12)</f>
+        <v>76642864</v>
+      </c>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
+        <v>440.16100442175542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B15</f>
+        <v>105926</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15</f>
+        <v>14356722</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
+        <v>737.81466270643114</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
+        <v>530360</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
+        <v>97429416</v>
+      </c>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
+        <v>544.3530524703134</v>
+      </c>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
+        <v>0.73779104697314191</v>
+      </c>
+      <c r="I18" s="7">
+        <f>1-H18</f>
+        <v>0.26220895302685809</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>298934</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>35143274</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>850.61511343536188</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>337352</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>76642864</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>440.16100442175542</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.51746200775117457</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.48253799224882543</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{615152FD-52A3-E24B-9473-DB9D354902D0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1563,14 +2410,14 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2006,40 +2853,40 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <f>SUM(B4:B13)</f>
-        <v>68115</v>
+        <f>SUM(B4:B12)</f>
+        <v>67838</v>
       </c>
       <c r="C15" s="1">
-        <f>SUM(C4:C13)</f>
+        <f>SUM(C4:C12)</f>
         <v>14352257</v>
       </c>
       <c r="D15" s="4">
         <f>B15/C15*100000</f>
-        <v>474.59434429023952</v>
+        <v>472.6643342576711</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM(E4:E13)</f>
-        <v>126694</v>
+        <f>SUM(E4:E12)</f>
+        <v>126384</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM(F4:F13)</f>
-        <v>21314778</v>
+        <f>SUM(F4:F12)</f>
+        <v>21172931</v>
       </c>
       <c r="G15" s="4">
         <f>E15/F15*100000</f>
-        <v>594.39511872936237</v>
+        <v>596.91310570085932</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM(H4:H13)</f>
-        <v>207040</v>
+        <f>SUM(H4:H12)</f>
+        <v>203749</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(I4:I13)</f>
-        <v>78511011</v>
+        <f>SUM(I4:I12)</f>
+        <v>76261315</v>
       </c>
       <c r="J15" s="4">
         <f>H15/I15*100000</f>
-        <v>263.70823323113234</v>
+        <v>267.17215668258535</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2074,7 +2921,7 @@
       </c>
       <c r="B18" s="1">
         <f>B15</f>
-        <v>68115</v>
+        <v>67838</v>
       </c>
       <c r="C18" s="1">
         <f>C15</f>
@@ -2082,27 +2929,27 @@
       </c>
       <c r="D18" s="4">
         <f>B18/C18*100000</f>
-        <v>474.59434429023952</v>
+        <v>472.6643342576711</v>
       </c>
       <c r="E18" s="1">
         <f>E15+H15</f>
-        <v>333734</v>
+        <v>330133</v>
       </c>
       <c r="F18" s="1">
         <f>F15+I15</f>
-        <v>99825789</v>
+        <v>97434246</v>
       </c>
       <c r="G18" s="4">
         <f>E18/F18*100000</f>
-        <v>334.316415971428</v>
+        <v>338.82645327803942</v>
       </c>
       <c r="H18" s="6">
         <f>G18/D18</f>
-        <v>0.70442562157246413</v>
+        <v>0.71684370645433448</v>
       </c>
       <c r="I18" s="7">
         <f>1-H18</f>
-        <v>0.29557437842753587</v>
+        <v>0.28315629354566552</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -2111,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -2134,39 +2981,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <f>B15+E15</f>
-        <v>194809</v>
+        <v>194222</v>
       </c>
       <c r="C21" s="1">
         <f>C15+F15</f>
-        <v>35667035</v>
+        <v>35525188</v>
       </c>
       <c r="D21" s="4">
         <f>B21/C21*100000</f>
-        <v>546.18781740618476</v>
+        <v>546.71631857373984</v>
       </c>
       <c r="E21" s="1">
         <f>H15</f>
-        <v>207040</v>
+        <v>203749</v>
       </c>
       <c r="F21" s="1">
         <f>I15</f>
-        <v>78511011</v>
+        <v>76261315</v>
       </c>
       <c r="G21" s="4">
         <f>E21/F21*100000</f>
-        <v>263.70823323113234</v>
+        <v>267.17215668258535</v>
       </c>
       <c r="H21" s="6">
         <f>G21/D21</f>
-        <v>0.48281602926163369</v>
+        <v>0.48868516926580413</v>
       </c>
       <c r="I21" s="7">
         <f>1-H21</f>
-        <v>0.51718397073836631</v>
+        <v>0.51131483073419592</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +3027,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2623,40 +3470,40 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <f>SUM(B4:B13)</f>
-        <v>6288</v>
+        <f>SUM(B4:B12)</f>
+        <v>6257</v>
       </c>
       <c r="C15" s="1">
-        <f>SUM(C4:C13)</f>
+        <f>SUM(C4:C12)</f>
         <v>14348023</v>
       </c>
       <c r="D15" s="4">
         <f>B15/C15*100000</f>
-        <v>43.824853082546632</v>
+        <v>43.608795441713468</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM(E4:E13)</f>
-        <v>11842</v>
+        <f>SUM(E4:E12)</f>
+        <v>11813</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM(F4:F13)</f>
-        <v>22121201</v>
+        <f>SUM(F4:F12)</f>
+        <v>21971582</v>
       </c>
       <c r="G15" s="4">
         <f>E15/F15*100000</f>
-        <v>53.532355679965121</v>
+        <v>53.764904138445743</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM(H4:H13)</f>
-        <v>17672</v>
+        <f>SUM(H4:H12)</f>
+        <v>17349</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(I4:I13)</f>
-        <v>77699315</v>
+        <f>SUM(I4:I12)</f>
+        <v>75462959</v>
       </c>
       <c r="J15" s="4">
         <f>H15/I15*100000</f>
-        <v>22.744087254823288</v>
+        <v>22.990087096902734</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2691,7 +3538,7 @@
       </c>
       <c r="B18" s="1">
         <f>B15</f>
-        <v>6288</v>
+        <v>6257</v>
       </c>
       <c r="C18" s="1">
         <f>C15</f>
@@ -2699,27 +3546,27 @@
       </c>
       <c r="D18" s="4">
         <f>B18/C18*100000</f>
-        <v>43.824853082546632</v>
+        <v>43.608795441713468</v>
       </c>
       <c r="E18" s="1">
         <f>E15+H15</f>
-        <v>29514</v>
+        <v>29162</v>
       </c>
       <c r="F18" s="1">
         <f>F15+I15</f>
-        <v>99820516</v>
+        <v>97434541</v>
       </c>
       <c r="G18" s="4">
         <f>E18/F18*100000</f>
-        <v>29.567068156610212</v>
+        <v>29.929837715353944</v>
       </c>
       <c r="H18" s="6">
         <f>G18/D18</f>
-        <v>0.67466439878118789</v>
+        <v>0.68632571508097462</v>
       </c>
       <c r="I18" s="7">
         <f>1-H18</f>
-        <v>0.32533560121881211</v>
+        <v>0.31367428491902538</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -2728,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -2751,39 +3598,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <f>B15+E15</f>
-        <v>18130</v>
+        <v>18070</v>
       </c>
       <c r="C21" s="1">
         <f>C15+F15</f>
-        <v>36469224</v>
+        <v>36319605</v>
       </c>
       <c r="D21" s="4">
         <f>B21/C21*100000</f>
-        <v>49.713149915117462</v>
+        <v>49.752743731656771</v>
       </c>
       <c r="E21" s="1">
         <f>H15</f>
-        <v>17672</v>
+        <v>17349</v>
       </c>
       <c r="F21" s="1">
         <f>I15</f>
-        <v>77699315</v>
+        <v>75462959</v>
       </c>
       <c r="G21" s="4">
         <f>E21/F21*100000</f>
-        <v>22.744087254823288</v>
+        <v>22.990087096902734</v>
       </c>
       <c r="H21" s="6">
         <f>G21/D21</f>
-        <v>0.45750646043667714</v>
+        <v>0.46208681918932154</v>
       </c>
       <c r="I21" s="7">
         <f>1-H21</f>
-        <v>0.5424935395633228</v>
+        <v>0.53791318081067852</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +3648,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3244,40 +4091,40 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <f>SUM(B4:B13)</f>
-        <v>7049</v>
+        <f>SUM(B4:B12)</f>
+        <v>7018</v>
       </c>
       <c r="C15" s="1">
-        <f>SUM(C4:C13)</f>
+        <f>SUM(C4:C12)</f>
         <v>14352839</v>
       </c>
       <c r="D15" s="4">
         <f>B15/C15*100000</f>
-        <v>49.112234868655605</v>
+        <v>48.896249724531849</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM(E4:E13)</f>
-        <v>12758</v>
+        <f>SUM(E4:E12)</f>
+        <v>12723</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM(F4:F13)</f>
-        <v>22267096</v>
+        <f>SUM(F4:F12)</f>
+        <v>22117080</v>
       </c>
       <c r="G15" s="4">
         <f>E15/F15*100000</f>
-        <v>57.295302449856962</v>
+        <v>57.525676988101509</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM(H4:H13)</f>
-        <v>17496</v>
+        <f>SUM(H4:H12)</f>
+        <v>17168</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(I4:I13)</f>
-        <v>77546794</v>
+        <f>SUM(I4:I12)</f>
+        <v>75310896</v>
       </c>
       <c r="J15" s="4">
         <f>H15/I15*100000</f>
-        <v>22.561861164756856</v>
+        <v>22.796170158432322</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3312,7 +4159,7 @@
       </c>
       <c r="B18" s="1">
         <f>B15</f>
-        <v>7049</v>
+        <v>7018</v>
       </c>
       <c r="C18" s="1">
         <f>C15</f>
@@ -3320,27 +4167,27 @@
       </c>
       <c r="D18" s="4">
         <f>B18/C18*100000</f>
-        <v>49.112234868655605</v>
+        <v>48.896249724531849</v>
       </c>
       <c r="E18" s="1">
         <f>E15+H15</f>
-        <v>30254</v>
+        <v>29891</v>
       </c>
       <c r="F18" s="1">
         <f>F15+I15</f>
-        <v>99813890</v>
+        <v>97427976</v>
       </c>
       <c r="G18" s="4">
         <f>E18/F18*100000</f>
-        <v>30.310410705363754</v>
+        <v>30.680099522954269</v>
       </c>
       <c r="H18" s="6">
         <f>G18/D18</f>
-        <v>0.61716618652002042</v>
+        <v>0.62745301931738307</v>
       </c>
       <c r="I18" s="7">
         <f>1-H18</f>
-        <v>0.38283381347997958</v>
+        <v>0.37254698068261693</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -3349,7 +4196,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -3372,39 +4219,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <f>B15+E15</f>
-        <v>19807</v>
+        <v>19741</v>
       </c>
       <c r="C21" s="1">
         <f>C15+F15</f>
-        <v>36619935</v>
+        <v>36469919</v>
       </c>
       <c r="D21" s="4">
         <f>B21/C21*100000</f>
-        <v>54.088026098353261</v>
+        <v>54.12954166418632</v>
       </c>
       <c r="E21" s="1">
         <f>H15</f>
-        <v>17496</v>
+        <v>17168</v>
       </c>
       <c r="F21" s="1">
         <f>I15</f>
-        <v>77546794</v>
+        <v>75310896</v>
       </c>
       <c r="G21" s="4">
         <f>E21/F21*100000</f>
-        <v>22.561861164756856</v>
+        <v>22.796170158432322</v>
       </c>
       <c r="H21" s="6">
         <f>G21/D21</f>
-        <v>0.41713227108215295</v>
+        <v>0.42114101574805929</v>
       </c>
       <c r="I21" s="7">
         <f>1-H21</f>
-        <v>0.58286772891784699</v>
+        <v>0.57885898425194071</v>
       </c>
     </row>
   </sheetData>
@@ -3422,7 +4269,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3865,40 +4712,40 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <f>SUM(B4:B13)</f>
-        <v>11138</v>
+        <f>SUM(B4:B12)</f>
+        <v>11085</v>
       </c>
       <c r="C15" s="1">
-        <f>SUM(C4:C13)</f>
+        <f>SUM(C4:C12)</f>
         <v>14355606</v>
       </c>
       <c r="D15" s="4">
         <f>B15/C15*100000</f>
-        <v>77.586414673124921</v>
+        <v>77.217220924006966</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM(E4:E13)</f>
-        <v>18882</v>
+        <f>SUM(E4:E12)</f>
+        <v>18788</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM(F4:F13)</f>
-        <v>22366315</v>
+        <f>SUM(F4:F12)</f>
+        <v>22215655</v>
       </c>
       <c r="G15" s="4">
         <f>E15/F15*100000</f>
-        <v>84.421595600348112</v>
+        <v>84.57099284265982</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM(H4:H13)</f>
-        <v>25679</v>
+        <f>SUM(H4:H12)</f>
+        <v>25175</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(I4:I13)</f>
-        <v>77442897</v>
+        <f>SUM(I4:I12)</f>
+        <v>75207710</v>
       </c>
       <c r="J15" s="4">
         <f>H15/I15*100000</f>
-        <v>33.158625251325503</v>
+        <v>33.473961645687659</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3933,7 +4780,7 @@
       </c>
       <c r="B18" s="1">
         <f>B15</f>
-        <v>11138</v>
+        <v>11085</v>
       </c>
       <c r="C18" s="1">
         <f>C15</f>
@@ -3941,27 +4788,27 @@
       </c>
       <c r="D18" s="4">
         <f>B18/C18*100000</f>
-        <v>77.586414673124921</v>
+        <v>77.217220924006966</v>
       </c>
       <c r="E18" s="1">
         <f>E15+H15</f>
-        <v>44561</v>
+        <v>43963</v>
       </c>
       <c r="F18" s="1">
         <f>F15+I15</f>
-        <v>99809212</v>
+        <v>97423365</v>
       </c>
       <c r="G18" s="4">
         <f>E18/F18*100000</f>
-        <v>44.646179553045663</v>
+        <v>45.125725230287415</v>
       </c>
       <c r="H18" s="6">
         <f>G18/D18</f>
-        <v>0.57543810654406491</v>
+        <v>0.58439975811480871</v>
       </c>
       <c r="I18" s="7">
         <f>1-H18</f>
-        <v>0.42456189345593509</v>
+        <v>0.41560024188519129</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -3970,7 +4817,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -3993,39 +4840,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <f>B15+E15</f>
-        <v>30020</v>
+        <v>29873</v>
       </c>
       <c r="C21" s="1">
         <f>C15+F15</f>
-        <v>36721921</v>
+        <v>36571261</v>
       </c>
       <c r="D21" s="4">
         <f>B21/C21*100000</f>
-        <v>81.749535924332491</v>
+        <v>81.684358655284001</v>
       </c>
       <c r="E21" s="1">
         <f>H15</f>
-        <v>25679</v>
+        <v>25175</v>
       </c>
       <c r="F21" s="1">
         <f>I15</f>
-        <v>77442897</v>
+        <v>75207710</v>
       </c>
       <c r="G21" s="4">
         <f>E21/F21*100000</f>
-        <v>33.158625251325503</v>
+        <v>33.473961645687659</v>
       </c>
       <c r="H21" s="6">
         <f>G21/D21</f>
-        <v>0.40561239738433724</v>
+        <v>0.4097964677295326</v>
       </c>
       <c r="I21" s="7">
         <f>1-H21</f>
-        <v>0.5943876026156627</v>
+        <v>0.5902035322704674</v>
       </c>
     </row>
   </sheetData>
@@ -4043,7 +4890,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="20"/>
@@ -4490,40 +5337,40 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <f>SUM(B4:B13)</f>
-        <v>9920</v>
+        <f>SUM(B4:B12)</f>
+        <v>9855</v>
       </c>
       <c r="C15" s="1">
-        <f>SUM(C4:C13)</f>
+        <f>SUM(C4:C12)</f>
         <v>14343304</v>
       </c>
       <c r="D15" s="4">
         <f>B15/C15*100000</f>
-        <v>69.161191870436554</v>
+        <v>68.708018738220986</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM(E4:E13)</f>
-        <v>16426</v>
+        <f>SUM(E4:E12)</f>
+        <v>16353</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM(F4:F13)</f>
-        <v>23193151</v>
+        <f>SUM(F4:F12)</f>
+        <v>23033437</v>
       </c>
       <c r="G15" s="4">
         <f>E15/F15*100000</f>
-        <v>70.822632077892308</v>
+        <v>70.996786107084233</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM(H4:H13)</f>
-        <v>20284</v>
+        <f>SUM(H4:H12)</f>
+        <v>19822</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(I4:I13)</f>
-        <v>76613567</v>
+        <f>SUM(I4:I12)</f>
+        <v>74392100</v>
       </c>
       <c r="J15" s="4">
         <f>H15/I15*100000</f>
-        <v>26.475728509025043</v>
+        <v>26.645302390979687</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4558,7 +5405,7 @@
       </c>
       <c r="B18" s="1">
         <f>B15</f>
-        <v>9920</v>
+        <v>9855</v>
       </c>
       <c r="C18" s="1">
         <f>C15</f>
@@ -4566,27 +5413,27 @@
       </c>
       <c r="D18" s="4">
         <f>B18/C18*100000</f>
-        <v>69.161191870436554</v>
+        <v>68.708018738220986</v>
       </c>
       <c r="E18" s="1">
         <f>E15+H15</f>
-        <v>36710</v>
+        <v>36175</v>
       </c>
       <c r="F18" s="1">
         <f>F15+I15</f>
-        <v>99806718</v>
+        <v>97425537</v>
       </c>
       <c r="G18" s="4">
         <f>E18/F18*100000</f>
-        <v>36.78109122874875</v>
+        <v>37.130921844444131</v>
       </c>
       <c r="H18" s="6">
         <f>G18/D18</f>
-        <v>0.53181690821136773</v>
+        <v>0.54041613375454378</v>
       </c>
       <c r="I18" s="7">
         <f>1-H18</f>
-        <v>0.46818309178863227</v>
+        <v>0.45958386624545622</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -4607,7 +5454,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -4632,39 +5479,39 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <f>B15+E15</f>
-        <v>26346</v>
+        <v>26208</v>
       </c>
       <c r="C21" s="1">
         <f>C15+F15</f>
-        <v>37536455</v>
+        <v>37376741</v>
       </c>
       <c r="D21" s="4">
         <f>B21/C21*100000</f>
-        <v>70.187768131007573</v>
+        <v>70.118472875952449</v>
       </c>
       <c r="E21" s="1">
         <f>H15</f>
-        <v>20284</v>
+        <v>19822</v>
       </c>
       <c r="F21" s="1">
         <f>I15</f>
-        <v>76613567</v>
+        <v>74392100</v>
       </c>
       <c r="G21" s="4">
         <f>E21/F21*100000</f>
-        <v>26.475728509025043</v>
+        <v>26.645302390979687</v>
       </c>
       <c r="H21" s="6">
         <f>G21/D21</f>
-        <v>0.37721285651379172</v>
+        <v>0.38000403172097397</v>
       </c>
       <c r="I21" s="7">
         <f>1-H21</f>
-        <v>0.62278714348620823</v>
+        <v>0.61999596827902603</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -4778,7 +5625,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I21"/>
+      <selection activeCell="B18" sqref="B18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5212,40 +6059,40 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <f>SUM(B4:B13)</f>
-        <v>11023</v>
+        <f>SUM(B4:B12)</f>
+        <v>10961</v>
       </c>
       <c r="C15" s="1">
-        <f>SUM(C4:C13)</f>
+        <f>SUM(C4:C12)</f>
         <v>14345329</v>
       </c>
       <c r="D15" s="4">
         <f>B15/C15*100000</f>
-        <v>76.840342943685712</v>
+        <v>76.408146512359522</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM(E4:E13)</f>
-        <v>18148</v>
+        <f>SUM(E4:E12)</f>
+        <v>18073</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM(F4:F13)</f>
-        <v>23888623</v>
+        <f>SUM(F4:F12)</f>
+        <v>23723419</v>
       </c>
       <c r="G15" s="4">
         <f>E15/F15*100000</f>
-        <v>75.969217648082932</v>
+        <v>76.182105117310442</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM(H4:H13)</f>
-        <v>20410</v>
+        <f>SUM(H4:H12)</f>
+        <v>19861</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(I4:I13)</f>
-        <v>75908669</v>
+        <f>SUM(I4:I12)</f>
+        <v>73695059</v>
       </c>
       <c r="J15" s="4">
         <f>H15/I15*100000</f>
-        <v>26.887574593094236</v>
+        <v>26.950246420184019</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5280,7 +6127,7 @@
       </c>
       <c r="B18" s="1">
         <f>B15</f>
-        <v>11023</v>
+        <v>10961</v>
       </c>
       <c r="C18" s="1">
         <f>C15</f>
@@ -5288,27 +6135,27 @@
       </c>
       <c r="D18" s="4">
         <f>B18/C18*100000</f>
-        <v>76.840342943685712</v>
+        <v>76.408146512359522</v>
       </c>
       <c r="E18" s="1">
         <f>E15+H15</f>
-        <v>38558</v>
+        <v>37934</v>
       </c>
       <c r="F18" s="1">
         <f>F15+I15</f>
-        <v>99797292</v>
+        <v>97418478</v>
       </c>
       <c r="G18" s="4">
         <f>E18/F18*100000</f>
-        <v>38.636318909334733</v>
+        <v>38.939224650994852</v>
       </c>
       <c r="H18" s="6">
         <f>G18/D18</f>
-        <v>0.50281294212403871</v>
+        <v>0.50962137453100209</v>
       </c>
       <c r="I18" s="7">
         <f>1-H18</f>
-        <v>0.49718705787596129</v>
+        <v>0.49037862546899791</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -5317,7 +6164,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -5340,39 +6187,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <f>B15+E15</f>
-        <v>29171</v>
+        <v>29034</v>
       </c>
       <c r="C21" s="1">
         <f>C15+F15</f>
-        <v>38233952</v>
+        <v>38068748</v>
       </c>
       <c r="D21" s="4">
         <f>B21/C21*100000</f>
-        <v>76.296062724564806</v>
+        <v>76.267283599660288</v>
       </c>
       <c r="E21" s="1">
         <f>H15</f>
-        <v>20410</v>
+        <v>19861</v>
       </c>
       <c r="F21" s="1">
         <f>I15</f>
-        <v>75908669</v>
+        <v>73695059</v>
       </c>
       <c r="G21" s="4">
         <f>E21/F21*100000</f>
-        <v>26.887574593094236</v>
+        <v>26.950246420184019</v>
       </c>
       <c r="H21" s="6">
         <f>G21/D21</f>
-        <v>0.352411037122068</v>
+        <v>0.35336575721839475</v>
       </c>
       <c r="I21" s="7">
         <f>1-H21</f>
-        <v>0.647588962877932</v>
+        <v>0.6466342427816052</v>
       </c>
     </row>
   </sheetData>
@@ -5390,7 +6237,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5824,40 +6671,40 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <f>SUM(B4:B13)</f>
-        <v>13907</v>
+        <f>SUM(B4:B12)</f>
+        <v>13817</v>
       </c>
       <c r="C15" s="1">
-        <f>SUM(C4:C13)</f>
+        <f>SUM(C4:C12)</f>
         <v>14356146</v>
       </c>
       <c r="D15" s="4">
         <f>B15/C15*100000</f>
-        <v>96.871402673112968</v>
+        <v>96.244493473387635</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM(E4:E13)</f>
-        <v>22986</v>
+        <f>SUM(E4:E12)</f>
+        <v>22875</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM(F4:F13)</f>
-        <v>24380240</v>
+        <f>SUM(F4:F12)</f>
+        <v>24213581</v>
       </c>
       <c r="G15" s="4">
         <f>E15/F15*100000</f>
-        <v>94.281270405869662</v>
+        <v>94.471775983899278</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM(H4:H13)</f>
-        <v>25130</v>
+        <f>SUM(H4:H12)</f>
+        <v>24509</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(I4:I13)</f>
-        <v>75403563</v>
+        <f>SUM(I4:I12)</f>
+        <v>73191533</v>
       </c>
       <c r="J15" s="4">
         <f>H15/I15*100000</f>
-        <v>33.327337595439623</v>
+        <v>33.48611375580834</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5892,7 +6739,7 @@
       </c>
       <c r="B18" s="1">
         <f>B15</f>
-        <v>13907</v>
+        <v>13817</v>
       </c>
       <c r="C18" s="1">
         <f>C15</f>
@@ -5900,27 +6747,27 @@
       </c>
       <c r="D18" s="4">
         <f>B18/C18*100000</f>
-        <v>96.871402673112968</v>
+        <v>96.244493473387635</v>
       </c>
       <c r="E18" s="1">
         <f>E15+H15</f>
-        <v>48116</v>
+        <v>47384</v>
       </c>
       <c r="F18" s="1">
         <f>F15+I15</f>
-        <v>99783803</v>
+        <v>97405114</v>
       </c>
       <c r="G18" s="4">
         <f>E18/F18*100000</f>
-        <v>48.220250735482587</v>
+        <v>48.646316455211995</v>
       </c>
       <c r="H18" s="6">
         <f>G18/D18</f>
-        <v>0.4977759112067271</v>
+        <v>0.50544519171544178</v>
       </c>
       <c r="I18" s="7">
         <f>1-H18</f>
-        <v>0.50222408879327296</v>
+        <v>0.49455480828455822</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -5929,7 +6776,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -5952,39 +6799,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <f>B15+E15</f>
-        <v>36893</v>
+        <v>36692</v>
       </c>
       <c r="C21" s="1">
         <f>C15+F15</f>
-        <v>38736386</v>
+        <v>38569727</v>
       </c>
       <c r="D21" s="4">
         <f>B21/C21*100000</f>
-        <v>95.241202935142169</v>
+        <v>95.131604120506211</v>
       </c>
       <c r="E21" s="1">
         <f>H15</f>
-        <v>25130</v>
+        <v>24509</v>
       </c>
       <c r="F21" s="1">
         <f>I15</f>
-        <v>75403563</v>
+        <v>73191533</v>
       </c>
       <c r="G21" s="4">
         <f>E21/F21*100000</f>
-        <v>33.327337595439623</v>
+        <v>33.48611375580834</v>
       </c>
       <c r="H21" s="6">
         <f>G21/D21</f>
-        <v>0.34992562639234032</v>
+        <v>0.35199778312778601</v>
       </c>
       <c r="I21" s="7">
         <f>1-H21</f>
-        <v>0.65007437360765974</v>
+        <v>0.64800221687221393</v>
       </c>
     </row>
   </sheetData>

--- a/data/CoVid19-ADB-infection_per_vax.xlsx
+++ b/data/CoVid19-ADB-infection_per_vax.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F248823-43EB-AE4E-B938-591ADFA798D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F4239C-524C-724D-84C5-17ED60139F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="60160" windowHeight="33340" xr2:uid="{82298470-7951-F644-8280-A9DDA1B95F75}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{82298470-7951-F644-8280-A9DDA1B95F75}"/>
   </bookViews>
   <sheets>
     <sheet name="未接種vs2回目以降有効率" sheetId="7" r:id="rId1"/>
-    <sheet name="7月18日〜7月24日" sheetId="10" r:id="rId2"/>
-    <sheet name="7月11日〜7月17日" sheetId="8" r:id="rId3"/>
-    <sheet name="7月1日〜7月3日" sheetId="4" r:id="rId4"/>
-    <sheet name="6月27日〜6月29日" sheetId="5" r:id="rId5"/>
-    <sheet name="6月20日〜6月26日" sheetId="6" r:id="rId6"/>
-    <sheet name="6月13日〜6月19日" sheetId="1" r:id="rId7"/>
-    <sheet name="6月6日〜6月12日" sheetId="3" r:id="rId8"/>
-    <sheet name="5月30日〜6月5日" sheetId="2" r:id="rId9"/>
+    <sheet name="7月25日〜7月31日" sheetId="11" r:id="rId2"/>
+    <sheet name="7月18日〜7月24日" sheetId="10" r:id="rId3"/>
+    <sheet name="7月11日〜7月17日" sheetId="8" r:id="rId4"/>
+    <sheet name="7月1日〜7月3日" sheetId="4" r:id="rId5"/>
+    <sheet name="6月27日〜6月29日" sheetId="5" r:id="rId6"/>
+    <sheet name="6月20日〜6月26日" sheetId="6" r:id="rId7"/>
+    <sheet name="6月13日〜6月19日" sheetId="1" r:id="rId8"/>
+    <sheet name="6月6日〜6月12日" sheetId="3" r:id="rId9"/>
+    <sheet name="5月30日〜6月5日" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="58">
   <si>
     <t>0-11歳</t>
   </si>
@@ -266,6 +267,21 @@
   </si>
   <si>
     <t>人数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10900000/000975388.pdf</t>
+  </si>
+  <si>
+    <t>7月25日〜7月31日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月24日〜7月31日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10900000/000975388.pdf</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -626,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,26 +757,11 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,10 +775,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A542951-50C2-AB4A-B2F0-1D3D236CFA45}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection sqref="A1:I33"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1112,27 +1131,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="38" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="43"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="33" t="s">
         <v>31</v>
       </c>
@@ -1399,20 +1418,37 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="30"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="37"/>
+      <c r="A12" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="15" cm="1">
+        <f t="array" ref="B12:I12">'7月25日〜7月31日'!B18:I18</f>
+        <v>131764</v>
+      </c>
+      <c r="C12" s="16">
+        <v>14356956</v>
+      </c>
+      <c r="D12" s="17">
+        <v>917.77114870310936</v>
+      </c>
+      <c r="E12" s="15">
+        <v>696020</v>
+      </c>
+      <c r="F12" s="16">
+        <v>97426385</v>
+      </c>
+      <c r="G12" s="17">
+        <v>714.40606156124954</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.77841416410917641</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0.22158583589082359</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="50" t="s">
-        <v>52</v>
-      </c>
+      <c r="A13" s="30"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -1423,326 +1459,359 @@
       <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="45"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="40"/>
+      <c r="B15" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="1:9" ht="21" thickBot="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="33" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" thickBot="1">
+      <c r="A16" s="41"/>
+      <c r="B16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C16" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="33" t="s">
+      <c r="D16" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F16" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I16" s="34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="22" cm="1">
-        <f t="array" ref="B16:I16">'5月30日〜6月5日'!B21:I21</f>
+      <c r="B17" s="22" cm="1">
+        <f t="array" ref="B17:I17">'5月30日〜6月5日'!B21:I21</f>
         <v>36692</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C17" s="23">
         <v>38569727</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D17" s="24">
         <v>95.131604120506211</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>24509</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>73191533</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G17" s="24">
         <v>33.48611375580834</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>0.35199778312778601</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I17" s="20">
         <v>0.64800221687221393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="15">
-        <f t="array" ref="B17:I17">'6月6日〜6月12日'!B21:I21</f>
-        <v>29034</v>
-      </c>
-      <c r="C17" s="16">
-        <v>38068748</v>
-      </c>
-      <c r="D17" s="17">
-        <v>76.267283599660288</v>
-      </c>
-      <c r="E17" s="15">
-        <v>19861</v>
-      </c>
-      <c r="F17" s="16">
-        <v>73695059</v>
-      </c>
-      <c r="G17" s="17">
-        <v>26.950246420184019</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0.35336575721839475</v>
-      </c>
-      <c r="I17" s="21">
-        <v>0.6466342427816052</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="15">
-        <f t="array" ref="B18:I18">'6月13日〜6月19日'!B21:I21</f>
-        <v>26208</v>
+        <f t="array" ref="B18:I18">'6月6日〜6月12日'!B21:I21</f>
+        <v>29034</v>
       </c>
       <c r="C18" s="16">
-        <v>37376741</v>
+        <v>38068748</v>
       </c>
       <c r="D18" s="17">
-        <v>70.118472875952449</v>
+        <v>76.267283599660288</v>
       </c>
       <c r="E18" s="15">
-        <v>19822</v>
+        <v>19861</v>
       </c>
       <c r="F18" s="16">
-        <v>74392100</v>
+        <v>73695059</v>
       </c>
       <c r="G18" s="17">
-        <v>26.645302390979687</v>
+        <v>26.950246420184019</v>
       </c>
       <c r="H18" s="18">
-        <v>0.38000403172097397</v>
+        <v>0.35336575721839475</v>
       </c>
       <c r="I18" s="21">
-        <v>0.61999596827902603</v>
+        <v>0.6466342427816052</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="15">
-        <f t="array" ref="B19:I19">'6月20日〜6月26日'!B21:I21</f>
-        <v>29873</v>
+        <f t="array" ref="B19:I19">'6月13日〜6月19日'!B21:I21</f>
+        <v>26208</v>
       </c>
       <c r="C19" s="16">
-        <v>36571261</v>
+        <v>37376741</v>
       </c>
       <c r="D19" s="17">
-        <v>81.684358655284001</v>
+        <v>70.118472875952449</v>
       </c>
       <c r="E19" s="15">
-        <v>25175</v>
+        <v>19822</v>
       </c>
       <c r="F19" s="16">
-        <v>75207710</v>
+        <v>74392100</v>
       </c>
       <c r="G19" s="17">
-        <v>33.473961645687659</v>
+        <v>26.645302390979687</v>
       </c>
       <c r="H19" s="18">
-        <v>0.4097964677295326</v>
+        <v>0.38000403172097397</v>
       </c>
       <c r="I19" s="21">
-        <v>0.5902035322704674</v>
+        <v>0.61999596827902603</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="15">
-        <f t="array" ref="B20:I20">'6月27日〜6月29日'!B21:I21</f>
-        <v>19741</v>
+        <f t="array" ref="B20:I20">'6月20日〜6月26日'!B21:I21</f>
+        <v>29873</v>
       </c>
       <c r="C20" s="16">
-        <v>36469919</v>
+        <v>36571261</v>
       </c>
       <c r="D20" s="17">
-        <v>54.12954166418632</v>
+        <v>81.684358655284001</v>
       </c>
       <c r="E20" s="15">
-        <v>17168</v>
+        <v>25175</v>
       </c>
       <c r="F20" s="16">
-        <v>75310896</v>
+        <v>75207710</v>
       </c>
       <c r="G20" s="17">
-        <v>22.796170158432322</v>
+        <v>33.473961645687659</v>
       </c>
       <c r="H20" s="18">
-        <v>0.42114101574805929</v>
+        <v>0.4097964677295326</v>
       </c>
       <c r="I20" s="21">
-        <v>0.57885898425194071</v>
+        <v>0.5902035322704674</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="15">
-        <f t="array" ref="B21:I21">'7月1日〜7月3日'!B21:I21</f>
-        <v>18070</v>
+        <f t="array" ref="B21:I21">'6月27日〜6月29日'!B21:I21</f>
+        <v>19741</v>
       </c>
       <c r="C21" s="16">
-        <v>36319605</v>
+        <v>36469919</v>
       </c>
       <c r="D21" s="17">
-        <v>49.752743731656771</v>
+        <v>54.12954166418632</v>
       </c>
       <c r="E21" s="15">
-        <v>17349</v>
+        <v>17168</v>
       </c>
       <c r="F21" s="16">
-        <v>75462959</v>
+        <v>75310896</v>
       </c>
       <c r="G21" s="17">
-        <v>22.990087096902734</v>
+        <v>22.796170158432322</v>
       </c>
       <c r="H21" s="18">
-        <v>0.46208681918932154</v>
+        <v>0.42114101574805929</v>
       </c>
       <c r="I21" s="21">
-        <v>0.53791318081067852</v>
+        <v>0.57885898425194071</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="array" ref="B22:I22">'7月1日〜7月3日'!B21:I21</f>
+        <v>18070</v>
+      </c>
+      <c r="C22" s="16">
+        <v>36319605</v>
+      </c>
+      <c r="D22" s="17">
+        <v>49.752743731656771</v>
+      </c>
+      <c r="E22" s="15">
+        <v>17349</v>
+      </c>
+      <c r="F22" s="16">
+        <v>75462959</v>
+      </c>
+      <c r="G22" s="17">
+        <v>22.990087096902734</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.46208681918932154</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0.53791318081067852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="15">
-        <f t="array" ref="B22:I22">'7月11日〜7月17日'!B21:I21</f>
+      <c r="B23" s="15">
+        <f t="array" ref="B23:I23">'7月11日〜7月17日'!B21:I21</f>
         <v>194222</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C23" s="16">
         <v>35525188</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="17">
         <v>546.71631857373984</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>203749</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="16">
         <v>76261315</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G23" s="17">
         <v>267.17215668258535</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H23" s="18">
         <v>0.48868516926580413</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I23" s="21">
         <v>0.51131483073419592</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="31" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="15">
-        <f t="array" ref="B23:I23">'7月18日〜7月24日'!B21:I21</f>
+      <c r="B24" s="15">
+        <f t="array" ref="B24:I24">'7月18日〜7月24日'!B21:I21</f>
         <v>298934</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C24" s="16">
         <v>35143274</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>850.61511343536188</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>337352</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="16">
         <v>76642864</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>440.16100442175542</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H24" s="18">
         <v>0.51746200775117457</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I24" s="21">
         <v>0.48253799224882543</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="32"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="37"/>
-    </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="15" cm="1">
+        <f t="array" ref="B25:I25">'7月25日〜7月31日'!B21:I21</f>
+        <v>367247</v>
+      </c>
+      <c r="C25" s="51">
+        <v>34657038</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1059.6606669040789</v>
+      </c>
+      <c r="E25" s="15">
+        <v>460537</v>
+      </c>
+      <c r="F25" s="16">
+        <v>77126303</v>
+      </c>
+      <c r="G25" s="17">
+        <v>597.12054394724453</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.56350165916019246</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0.43649834083980754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="32"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="30" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="12" customHeight="1">
-      <c r="A26" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12" customHeight="1">
-      <c r="A27" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1">
       <c r="A30" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1">
@@ -1752,32 +1821,47 @@
     </row>
     <row r="32" spans="1:9" ht="12" customHeight="1">
       <c r="A32" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12" customHeight="1">
+      <c r="A33" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12" customHeight="1">
+      <c r="A34" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12" customHeight="1">
-      <c r="A33" s="28" t="s">
+    <row r="35" spans="1:9" ht="12" customHeight="1">
+      <c r="A35" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+    </row>
+    <row r="36" spans="1:9" ht="12" customHeight="1">
+      <c r="A36" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1785,12 +1869,1241 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC594148-9F31-7A42-8E4A-6FB3022054F1}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20153</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10789693</v>
+      </c>
+      <c r="D3">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3304</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2134109</v>
+      </c>
+      <c r="D4">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4801</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4371477</v>
+      </c>
+      <c r="G4">
+        <v>109.8</v>
+      </c>
+      <c r="H4">
+        <v>985</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2426374</v>
+      </c>
+      <c r="J4">
+        <v>40.6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3166</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2417893</v>
+      </c>
+      <c r="D5">
+        <v>130.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5036</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4823259</v>
+      </c>
+      <c r="G5">
+        <v>104.4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3281</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5476899</v>
+      </c>
+      <c r="J5">
+        <v>59.9</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3114</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2796908</v>
+      </c>
+      <c r="D6">
+        <v>111.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5605</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4803018</v>
+      </c>
+      <c r="G6">
+        <v>116.7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4628</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6691491</v>
+      </c>
+      <c r="J6">
+        <v>69.2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2268</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3107718</v>
+      </c>
+      <c r="D7">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4471</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4902355</v>
+      </c>
+      <c r="G7">
+        <v>91.2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5197</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10343639</v>
+      </c>
+      <c r="J7">
+        <v>50.2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1099</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1307073</v>
+      </c>
+      <c r="D8">
+        <v>84.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1860</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3028872</v>
+      </c>
+      <c r="G8">
+        <v>61.4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3633</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12428106</v>
+      </c>
+      <c r="J8">
+        <v>29.2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>271</v>
+      </c>
+      <c r="C9" s="1">
+        <v>622891</v>
+      </c>
+      <c r="D9">
+        <v>43.5</v>
+      </c>
+      <c r="E9">
+        <v>389</v>
+      </c>
+      <c r="F9" s="1">
+        <v>716271</v>
+      </c>
+      <c r="G9">
+        <v>54.3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1611</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6058574</v>
+      </c>
+      <c r="J9">
+        <v>26.6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>184</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1009056</v>
+      </c>
+      <c r="D10">
+        <v>18.2</v>
+      </c>
+      <c r="E10">
+        <v>223</v>
+      </c>
+      <c r="F10" s="1">
+        <v>413319</v>
+      </c>
+      <c r="G10">
+        <v>54</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1381</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6661722</v>
+      </c>
+      <c r="J10">
+        <v>20.7</v>
+      </c>
+      <c r="K10">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>244</v>
+      </c>
+      <c r="C11" s="1">
+        <v>879186</v>
+      </c>
+      <c r="D11">
+        <v>27.8</v>
+      </c>
+      <c r="E11">
+        <v>311</v>
+      </c>
+      <c r="F11" s="1">
+        <v>679339</v>
+      </c>
+      <c r="G11">
+        <v>45.8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2377</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14635118</v>
+      </c>
+      <c r="J11">
+        <v>16.2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>167</v>
+      </c>
+      <c r="C12" s="1">
+        <v>81312</v>
+      </c>
+      <c r="D12">
+        <v>205.4</v>
+      </c>
+      <c r="E12">
+        <v>179</v>
+      </c>
+      <c r="F12" s="1">
+        <v>475671</v>
+      </c>
+      <c r="G12">
+        <v>37.6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1416</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8469610</v>
+      </c>
+      <c r="J12">
+        <v>16.7</v>
+      </c>
+      <c r="K12">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>111</v>
+      </c>
+      <c r="F13" s="1">
+        <v>166659</v>
+      </c>
+      <c r="G13">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="H13">
+        <v>621</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2212030</v>
+      </c>
+      <c r="J13">
+        <v>28.1</v>
+      </c>
+      <c r="K13">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <f>SUM(B4:B12)</f>
+        <v>13817</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C4:C12)</f>
+        <v>14356146</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
+        <v>96.244493473387635</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E4:E12)</f>
+        <v>22875</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(F4:F12)</f>
+        <v>24213581</v>
+      </c>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
+        <v>94.471775983899278</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H4:H12)</f>
+        <v>24509</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I4:I12)</f>
+        <v>73191533</v>
+      </c>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
+        <v>33.48611375580834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B15</f>
+        <v>13817</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15</f>
+        <v>14356146</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
+        <v>96.244493473387635</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
+        <v>47384</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
+        <v>97405114</v>
+      </c>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
+        <v>48.646316455211995</v>
+      </c>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
+        <v>0.50544519171544178</v>
+      </c>
+      <c r="I18" s="7">
+        <f>1-H18</f>
+        <v>0.49455480828455822</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>36692</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>38569727</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>95.131604120506211</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>24509</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>73191533</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>33.48611375580834</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.35199778312778601</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.64800221687221393</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{D6A1243F-4514-4D48-973A-D08DB0E194AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7C24CC-94FE-DE43-A7E4-835F47DDD733}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>142312</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10661366</v>
+      </c>
+      <c r="D3">
+        <v>1334.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>29032</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2188505</v>
+      </c>
+      <c r="D4">
+        <v>1326.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>46576</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3653795</v>
+      </c>
+      <c r="G4">
+        <v>1274.7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>22153</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3094663</v>
+      </c>
+      <c r="J4">
+        <v>715.8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>33445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>31161</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2403918</v>
+      </c>
+      <c r="D5">
+        <v>1296.3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>57377</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4172212</v>
+      </c>
+      <c r="G5">
+        <v>1375.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>64850</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6147698</v>
+      </c>
+      <c r="J5">
+        <v>1054.9000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>28014</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2817875</v>
+      </c>
+      <c r="D6">
+        <v>994.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>51511</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4042230</v>
+      </c>
+      <c r="G6">
+        <v>1274.3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>72661</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7435826</v>
+      </c>
+      <c r="J6">
+        <v>977.2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>46491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>21447</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3156002</v>
+      </c>
+      <c r="D7">
+        <v>679.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>46397</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4067295</v>
+      </c>
+      <c r="G7">
+        <v>1140.7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>96272</v>
+      </c>
+      <c r="I7" s="1">
+        <v>11133273</v>
+      </c>
+      <c r="J7">
+        <v>864.7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>46311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12638</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1232272</v>
+      </c>
+      <c r="D8">
+        <v>1025.5999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22503</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2474289</v>
+      </c>
+      <c r="G8">
+        <v>909.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>84447</v>
+      </c>
+      <c r="I8" s="1">
+        <v>13058644</v>
+      </c>
+      <c r="J8">
+        <v>646.70000000000005</v>
+      </c>
+      <c r="K8" s="1">
+        <v>30861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3011</v>
+      </c>
+      <c r="C9" s="1">
+        <v>613625</v>
+      </c>
+      <c r="D9">
+        <v>490.7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4187</v>
+      </c>
+      <c r="F9" s="1">
+        <v>575442</v>
+      </c>
+      <c r="G9">
+        <v>727.6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>31051</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6209106</v>
+      </c>
+      <c r="J9">
+        <v>500.1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1815</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1042000</v>
+      </c>
+      <c r="D10">
+        <v>174.2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2142</v>
+      </c>
+      <c r="F10" s="1">
+        <v>348966</v>
+      </c>
+      <c r="G10">
+        <v>613.79999999999995</v>
+      </c>
+      <c r="H10" s="1">
+        <v>25295</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6693599</v>
+      </c>
+      <c r="J10">
+        <v>377.9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2782</v>
+      </c>
+      <c r="C11" s="1">
+        <v>862504</v>
+      </c>
+      <c r="D11">
+        <v>322.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2854</v>
+      </c>
+      <c r="F11" s="1">
+        <v>571087</v>
+      </c>
+      <c r="G11">
+        <v>499.7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>40892</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14761040</v>
+      </c>
+      <c r="J11">
+        <v>277</v>
+      </c>
+      <c r="K11" s="1">
+        <v>12593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1864</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40255</v>
+      </c>
+      <c r="D12">
+        <v>4630.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1936</v>
+      </c>
+      <c r="F12" s="1">
+        <v>394766</v>
+      </c>
+      <c r="G12">
+        <v>490.4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>22916</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8592454</v>
+      </c>
+      <c r="J12">
+        <v>266.7</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>820</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>791</v>
+      </c>
+      <c r="F13" s="1">
+        <v>134534</v>
+      </c>
+      <c r="G13">
+        <v>588</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9451</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2261986</v>
+      </c>
+      <c r="J13">
+        <v>417.8</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1">
+        <f>SUM(B4:B12)</f>
+        <v>131764</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C4:C12)</f>
+        <v>14356956</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
+        <v>917.77114870310936</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E4:E12)</f>
+        <v>235483</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(F4:F12)</f>
+        <v>20300082</v>
+      </c>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
+        <v>1160.0100925700694</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H4:H12)</f>
+        <v>460537</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I4:I12)</f>
+        <v>77126303</v>
+      </c>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
+        <v>597.12054394724453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B15</f>
+        <v>131764</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15</f>
+        <v>14356956</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
+        <v>917.77114870310936</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
+        <v>696020</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
+        <v>97426385</v>
+      </c>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
+        <v>714.40606156124954</v>
+      </c>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
+        <v>0.77841416410917641</v>
+      </c>
+      <c r="I18" s="7">
+        <f>1-H18</f>
+        <v>0.22158583589082359</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>367247</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>34657038</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>1059.6606669040789</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>460537</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>77126303</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>597.12054394724453</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.56350165916019246</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.43649834083980754</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47240E34-C12B-CF43-891B-FC20EA154E51}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A14" sqref="A14:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2405,7 +3718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32255ACD-1CC9-C940-900D-EAD55B741142}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -3022,7 +4335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33C3266-9902-5243-AAA0-969E5D3E9A2A}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -3643,7 +4956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C97BFB-9A25-A44E-986F-C0C9B7E90C2E}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -4264,7 +5577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C976D44-D8EA-CD4C-B4BE-A813CBA42020}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -4885,7 +6198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53529764-596A-B04D-8640-EA9B8577167F}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -5620,7 +6933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF1FB26-5429-154F-8F37-227FC0E69C75}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -6230,616 +7543,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC594148-9F31-7A42-8E4A-6FB3022054F1}">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20153</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10789693</v>
-      </c>
-      <c r="D3">
-        <v>186.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3304</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2134109</v>
-      </c>
-      <c r="D4">
-        <v>154.80000000000001</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4801</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4371477</v>
-      </c>
-      <c r="G4">
-        <v>109.8</v>
-      </c>
-      <c r="H4">
-        <v>985</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2426374</v>
-      </c>
-      <c r="J4">
-        <v>40.6</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3166</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2417893</v>
-      </c>
-      <c r="D5">
-        <v>130.9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5036</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4823259</v>
-      </c>
-      <c r="G5">
-        <v>104.4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3281</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5476899</v>
-      </c>
-      <c r="J5">
-        <v>59.9</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3114</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2796908</v>
-      </c>
-      <c r="D6">
-        <v>111.3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5605</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4803018</v>
-      </c>
-      <c r="G6">
-        <v>116.7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4628</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6691491</v>
-      </c>
-      <c r="J6">
-        <v>69.2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2268</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3107718</v>
-      </c>
-      <c r="D7">
-        <v>73</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4471</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4902355</v>
-      </c>
-      <c r="G7">
-        <v>91.2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5197</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10343639</v>
-      </c>
-      <c r="J7">
-        <v>50.2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>5931</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1099</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1307073</v>
-      </c>
-      <c r="D8">
-        <v>84.1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1860</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3028872</v>
-      </c>
-      <c r="G8">
-        <v>61.4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3633</v>
-      </c>
-      <c r="I8" s="1">
-        <v>12428106</v>
-      </c>
-      <c r="J8">
-        <v>29.2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>271</v>
-      </c>
-      <c r="C9" s="1">
-        <v>622891</v>
-      </c>
-      <c r="D9">
-        <v>43.5</v>
-      </c>
-      <c r="E9">
-        <v>389</v>
-      </c>
-      <c r="F9" s="1">
-        <v>716271</v>
-      </c>
-      <c r="G9">
-        <v>54.3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1611</v>
-      </c>
-      <c r="I9" s="1">
-        <v>6058574</v>
-      </c>
-      <c r="J9">
-        <v>26.6</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>184</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1009056</v>
-      </c>
-      <c r="D10">
-        <v>18.2</v>
-      </c>
-      <c r="E10">
-        <v>223</v>
-      </c>
-      <c r="F10" s="1">
-        <v>413319</v>
-      </c>
-      <c r="G10">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1381</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6661722</v>
-      </c>
-      <c r="J10">
-        <v>20.7</v>
-      </c>
-      <c r="K10">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>244</v>
-      </c>
-      <c r="C11" s="1">
-        <v>879186</v>
-      </c>
-      <c r="D11">
-        <v>27.8</v>
-      </c>
-      <c r="E11">
-        <v>311</v>
-      </c>
-      <c r="F11" s="1">
-        <v>679339</v>
-      </c>
-      <c r="G11">
-        <v>45.8</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2377</v>
-      </c>
-      <c r="I11" s="1">
-        <v>14635118</v>
-      </c>
-      <c r="J11">
-        <v>16.2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>167</v>
-      </c>
-      <c r="C12" s="1">
-        <v>81312</v>
-      </c>
-      <c r="D12">
-        <v>205.4</v>
-      </c>
-      <c r="E12">
-        <v>179</v>
-      </c>
-      <c r="F12" s="1">
-        <v>475671</v>
-      </c>
-      <c r="G12">
-        <v>37.6</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1416</v>
-      </c>
-      <c r="I12" s="1">
-        <v>8469610</v>
-      </c>
-      <c r="J12">
-        <v>16.7</v>
-      </c>
-      <c r="K12">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>111</v>
-      </c>
-      <c r="F13" s="1">
-        <v>166659</v>
-      </c>
-      <c r="G13">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="H13">
-        <v>621</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2212030</v>
-      </c>
-      <c r="J13">
-        <v>28.1</v>
-      </c>
-      <c r="K13">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1">
-        <f>SUM(B4:B12)</f>
-        <v>13817</v>
-      </c>
-      <c r="C15" s="1">
-        <f>SUM(C4:C12)</f>
-        <v>14356146</v>
-      </c>
-      <c r="D15" s="4">
-        <f>B15/C15*100000</f>
-        <v>96.244493473387635</v>
-      </c>
-      <c r="E15" s="1">
-        <f>SUM(E4:E12)</f>
-        <v>22875</v>
-      </c>
-      <c r="F15" s="1">
-        <f>SUM(F4:F12)</f>
-        <v>24213581</v>
-      </c>
-      <c r="G15" s="4">
-        <f>E15/F15*100000</f>
-        <v>94.471775983899278</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SUM(H4:H12)</f>
-        <v>24509</v>
-      </c>
-      <c r="I15" s="1">
-        <f>SUM(I4:I12)</f>
-        <v>73191533</v>
-      </c>
-      <c r="J15" s="4">
-        <f>H15/I15*100000</f>
-        <v>33.48611375580834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1">
-        <f>B15</f>
-        <v>13817</v>
-      </c>
-      <c r="C18" s="1">
-        <f>C15</f>
-        <v>14356146</v>
-      </c>
-      <c r="D18" s="4">
-        <f>B18/C18*100000</f>
-        <v>96.244493473387635</v>
-      </c>
-      <c r="E18" s="1">
-        <f>E15+H15</f>
-        <v>47384</v>
-      </c>
-      <c r="F18" s="1">
-        <f>F15+I15</f>
-        <v>97405114</v>
-      </c>
-      <c r="G18" s="4">
-        <f>E18/F18*100000</f>
-        <v>48.646316455211995</v>
-      </c>
-      <c r="H18" s="6">
-        <f>G18/D18</f>
-        <v>0.50544519171544178</v>
-      </c>
-      <c r="I18" s="7">
-        <f>1-H18</f>
-        <v>0.49455480828455822</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="1">
-        <f>B15+E15</f>
-        <v>36692</v>
-      </c>
-      <c r="C21" s="1">
-        <f>C15+F15</f>
-        <v>38569727</v>
-      </c>
-      <c r="D21" s="4">
-        <f>B21/C21*100000</f>
-        <v>95.131604120506211</v>
-      </c>
-      <c r="E21" s="1">
-        <f>H15</f>
-        <v>24509</v>
-      </c>
-      <c r="F21" s="1">
-        <f>I15</f>
-        <v>73191533</v>
-      </c>
-      <c r="G21" s="4">
-        <f>E21/F21*100000</f>
-        <v>33.48611375580834</v>
-      </c>
-      <c r="H21" s="6">
-        <f>G21/D21</f>
-        <v>0.35199778312778601</v>
-      </c>
-      <c r="I21" s="7">
-        <f>1-H21</f>
-        <v>0.64800221687221393</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{D6A1243F-4514-4D48-973A-D08DB0E194AE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/data/CoVid19-ADB-infection_per_vax.xlsx
+++ b/data/CoVid19-ADB-infection_per_vax.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F4239C-524C-724D-84C5-17ED60139F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A4F1A4-F13A-744A-B3CB-6FC462CBC953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{82298470-7951-F644-8280-A9DDA1B95F75}"/>
   </bookViews>
   <sheets>
     <sheet name="未接種vs2回目以降有効率" sheetId="7" r:id="rId1"/>
-    <sheet name="7月25日〜7月31日" sheetId="11" r:id="rId2"/>
-    <sheet name="7月18日〜7月24日" sheetId="10" r:id="rId3"/>
-    <sheet name="7月11日〜7月17日" sheetId="8" r:id="rId4"/>
-    <sheet name="7月1日〜7月3日" sheetId="4" r:id="rId5"/>
-    <sheet name="6月27日〜6月29日" sheetId="5" r:id="rId6"/>
-    <sheet name="6月20日〜6月26日" sheetId="6" r:id="rId7"/>
-    <sheet name="6月13日〜6月19日" sheetId="1" r:id="rId8"/>
-    <sheet name="6月6日〜6月12日" sheetId="3" r:id="rId9"/>
-    <sheet name="5月30日〜6月5日" sheetId="2" r:id="rId10"/>
+    <sheet name="8月1日〜8月7日" sheetId="12" r:id="rId2"/>
+    <sheet name="7月25日〜7月31日" sheetId="11" r:id="rId3"/>
+    <sheet name="7月18日〜7月24日" sheetId="10" r:id="rId4"/>
+    <sheet name="7月11日〜7月17日" sheetId="8" r:id="rId5"/>
+    <sheet name="7月1日〜7月3日" sheetId="4" r:id="rId6"/>
+    <sheet name="6月27日〜6月29日" sheetId="5" r:id="rId7"/>
+    <sheet name="6月20日〜6月26日" sheetId="6" r:id="rId8"/>
+    <sheet name="6月13日〜6月19日" sheetId="1" r:id="rId9"/>
+    <sheet name="6月6日〜6月12日" sheetId="3" r:id="rId10"/>
+    <sheet name="5月30日〜6月5日" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="59">
   <si>
     <t>0-11歳</t>
   </si>
@@ -281,7 +282,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www.mhlw.go.jp/content/10900000/000975388.pdf</t>
+    <t>https://www.mhlw.go.jp/content/10900000/000977539.pdf</t>
+  </si>
+  <si>
+    <t>8月01日〜8月07日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -368,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -633,6 +637,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,7 +655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +776,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,9 +803,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,16 +812,25 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,16 +1148,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A542951-50C2-AB4A-B2F0-1D3D236CFA45}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1136,22 +1170,22 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="42"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="33" t="s">
         <v>31</v>
       </c>
@@ -1448,20 +1482,37 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="30"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="37"/>
+      <c r="A13" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="55" cm="1">
+        <f t="array" ref="B13:I13">'8月1日〜8月7日'!B18:I18</f>
+        <v>130513</v>
+      </c>
+      <c r="C13" s="55">
+        <v>14353440</v>
+      </c>
+      <c r="D13" s="56">
+        <v>909.28028402947302</v>
+      </c>
+      <c r="E13" s="55">
+        <v>721694</v>
+      </c>
+      <c r="F13" s="55">
+        <v>97422441</v>
+      </c>
+      <c r="G13" s="56">
+        <v>740.78825432017254</v>
+      </c>
+      <c r="H13" s="57">
+        <v>0.81469736816174154</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.18530263183825846</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="39" t="s">
-        <v>52</v>
-      </c>
+      <c r="A14" s="30"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -1472,356 +1523,389 @@
       <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="40"/>
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="45"/>
+      <c r="B16" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47" t="s">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-    </row>
-    <row r="16" spans="1:9" ht="21" thickBot="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="33" t="s">
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="1:9" ht="21" thickBot="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C17" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="33" t="s">
+      <c r="D17" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F17" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H17" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I17" s="34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="22" cm="1">
-        <f t="array" ref="B17:I17">'5月30日〜6月5日'!B21:I21</f>
+      <c r="B18" s="22" cm="1">
+        <f t="array" ref="B18:I18">'5月30日〜6月5日'!B21:I21</f>
         <v>36692</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C18" s="23">
         <v>38569727</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D18" s="24">
         <v>95.131604120506211</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="10">
         <v>24509</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>73191533</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G18" s="24">
         <v>33.48611375580834</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>0.35199778312778601</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I18" s="20">
         <v>0.64800221687221393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="15">
-        <f t="array" ref="B18:I18">'6月6日〜6月12日'!B21:I21</f>
-        <v>29034</v>
-      </c>
-      <c r="C18" s="16">
-        <v>38068748</v>
-      </c>
-      <c r="D18" s="17">
-        <v>76.267283599660288</v>
-      </c>
-      <c r="E18" s="15">
-        <v>19861</v>
-      </c>
-      <c r="F18" s="16">
-        <v>73695059</v>
-      </c>
-      <c r="G18" s="17">
-        <v>26.950246420184019</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0.35336575721839475</v>
-      </c>
-      <c r="I18" s="21">
-        <v>0.6466342427816052</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="15">
-        <f t="array" ref="B19:I19">'6月13日〜6月19日'!B21:I21</f>
-        <v>26208</v>
+        <f t="array" ref="B19:I19">'6月6日〜6月12日'!B21:I21</f>
+        <v>29034</v>
       </c>
       <c r="C19" s="16">
-        <v>37376741</v>
+        <v>38068748</v>
       </c>
       <c r="D19" s="17">
-        <v>70.118472875952449</v>
+        <v>76.267283599660288</v>
       </c>
       <c r="E19" s="15">
-        <v>19822</v>
+        <v>19861</v>
       </c>
       <c r="F19" s="16">
-        <v>74392100</v>
+        <v>73695059</v>
       </c>
       <c r="G19" s="17">
-        <v>26.645302390979687</v>
+        <v>26.950246420184019</v>
       </c>
       <c r="H19" s="18">
-        <v>0.38000403172097397</v>
+        <v>0.35336575721839475</v>
       </c>
       <c r="I19" s="21">
-        <v>0.61999596827902603</v>
+        <v>0.6466342427816052</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="15">
-        <f t="array" ref="B20:I20">'6月20日〜6月26日'!B21:I21</f>
-        <v>29873</v>
+        <f t="array" ref="B20:I20">'6月13日〜6月19日'!B21:I21</f>
+        <v>26208</v>
       </c>
       <c r="C20" s="16">
-        <v>36571261</v>
+        <v>37376741</v>
       </c>
       <c r="D20" s="17">
-        <v>81.684358655284001</v>
+        <v>70.118472875952449</v>
       </c>
       <c r="E20" s="15">
-        <v>25175</v>
+        <v>19822</v>
       </c>
       <c r="F20" s="16">
-        <v>75207710</v>
+        <v>74392100</v>
       </c>
       <c r="G20" s="17">
-        <v>33.473961645687659</v>
+        <v>26.645302390979687</v>
       </c>
       <c r="H20" s="18">
-        <v>0.4097964677295326</v>
+        <v>0.38000403172097397</v>
       </c>
       <c r="I20" s="21">
-        <v>0.5902035322704674</v>
+        <v>0.61999596827902603</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="15">
-        <f t="array" ref="B21:I21">'6月27日〜6月29日'!B21:I21</f>
-        <v>19741</v>
+        <f t="array" ref="B21:I21">'6月20日〜6月26日'!B21:I21</f>
+        <v>29873</v>
       </c>
       <c r="C21" s="16">
-        <v>36469919</v>
+        <v>36571261</v>
       </c>
       <c r="D21" s="17">
-        <v>54.12954166418632</v>
+        <v>81.684358655284001</v>
       </c>
       <c r="E21" s="15">
-        <v>17168</v>
+        <v>25175</v>
       </c>
       <c r="F21" s="16">
-        <v>75310896</v>
+        <v>75207710</v>
       </c>
       <c r="G21" s="17">
-        <v>22.796170158432322</v>
+        <v>33.473961645687659</v>
       </c>
       <c r="H21" s="18">
-        <v>0.42114101574805929</v>
+        <v>0.4097964677295326</v>
       </c>
       <c r="I21" s="21">
-        <v>0.57885898425194071</v>
+        <v>0.5902035322704674</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="15">
-        <f t="array" ref="B22:I22">'7月1日〜7月3日'!B21:I21</f>
-        <v>18070</v>
+        <f t="array" ref="B22:I22">'6月27日〜6月29日'!B21:I21</f>
+        <v>19741</v>
       </c>
       <c r="C22" s="16">
-        <v>36319605</v>
+        <v>36469919</v>
       </c>
       <c r="D22" s="17">
-        <v>49.752743731656771</v>
+        <v>54.12954166418632</v>
       </c>
       <c r="E22" s="15">
-        <v>17349</v>
+        <v>17168</v>
       </c>
       <c r="F22" s="16">
-        <v>75462959</v>
+        <v>75310896</v>
       </c>
       <c r="G22" s="17">
-        <v>22.990087096902734</v>
+        <v>22.796170158432322</v>
       </c>
       <c r="H22" s="18">
-        <v>0.46208681918932154</v>
+        <v>0.42114101574805929</v>
       </c>
       <c r="I22" s="21">
-        <v>0.53791318081067852</v>
+        <v>0.57885898425194071</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="array" ref="B23:I23">'7月1日〜7月3日'!B21:I21</f>
+        <v>18070</v>
+      </c>
+      <c r="C23" s="16">
+        <v>36319605</v>
+      </c>
+      <c r="D23" s="17">
+        <v>49.752743731656771</v>
+      </c>
+      <c r="E23" s="15">
+        <v>17349</v>
+      </c>
+      <c r="F23" s="16">
+        <v>75462959</v>
+      </c>
+      <c r="G23" s="17">
+        <v>22.990087096902734</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0.46208681918932154</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0.53791318081067852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="15">
-        <f t="array" ref="B23:I23">'7月11日〜7月17日'!B21:I21</f>
+      <c r="B24" s="15">
+        <f t="array" ref="B24:I24">'7月11日〜7月17日'!B21:I21</f>
         <v>194222</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C24" s="16">
         <v>35525188</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>546.71631857373984</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>203749</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="16">
         <v>76261315</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>267.17215668258535</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H24" s="18">
         <v>0.48868516926580413</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I24" s="21">
         <v>0.51131483073419592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="15">
-        <f t="array" ref="B24:I24">'7月18日〜7月24日'!B21:I21</f>
-        <v>298934</v>
-      </c>
-      <c r="C24" s="16">
-        <v>35143274</v>
-      </c>
-      <c r="D24" s="17">
-        <v>850.61511343536188</v>
-      </c>
-      <c r="E24" s="15">
-        <v>337352</v>
-      </c>
-      <c r="F24" s="16">
-        <v>76642864</v>
-      </c>
-      <c r="G24" s="17">
-        <v>440.16100442175542</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0.51746200775117457</v>
-      </c>
-      <c r="I24" s="21">
-        <v>0.48253799224882543</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="array" ref="B25:I25">'7月18日〜7月24日'!B21:I21</f>
+        <v>298934</v>
+      </c>
+      <c r="C25" s="16">
+        <v>35143274</v>
+      </c>
+      <c r="D25" s="17">
+        <v>850.61511343536188</v>
+      </c>
+      <c r="E25" s="15">
+        <v>337352</v>
+      </c>
+      <c r="F25" s="16">
+        <v>76642864</v>
+      </c>
+      <c r="G25" s="17">
+        <v>440.16100442175542</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.51746200775117457</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0.48253799224882543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="15" cm="1">
-        <f t="array" ref="B25:I25">'7月25日〜7月31日'!B21:I21</f>
+      <c r="B26" s="15" cm="1">
+        <f t="array" ref="B26:I26">'7月25日〜7月31日'!B21:I21</f>
         <v>367247</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C26" s="40">
         <v>34657038</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D26" s="17">
         <v>1059.6606669040789</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="15">
         <v>460537</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F26" s="16">
         <v>77126303</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G26" s="17">
         <v>597.12054394724453</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H26" s="18">
         <v>0.56350165916019246</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I26" s="21">
         <v>0.43649834083980754</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="32"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="37"/>
-    </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="25" cm="1">
+        <f t="array" ref="B27:I27">'8月1日〜8月7日'!B21:I21</f>
+        <v>357185</v>
+      </c>
+      <c r="C27" s="25">
+        <v>34164904</v>
+      </c>
+      <c r="D27" s="26">
+        <v>1045.4734484253197</v>
+      </c>
+      <c r="E27" s="25">
+        <v>495022</v>
+      </c>
+      <c r="F27" s="25">
+        <v>77610977</v>
+      </c>
+      <c r="G27" s="26">
+        <v>637.82472420106239</v>
+      </c>
+      <c r="H27" s="27">
+        <v>0.61008218349470933</v>
+      </c>
+      <c r="I27" s="52">
+        <v>0.38991781650529067</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="32"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="37"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="30" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="12" customHeight="1">
-      <c r="A28" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="12" customHeight="1">
-      <c r="A29" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1">
       <c r="A31" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12" customHeight="1">
       <c r="A32" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12" customHeight="1">
@@ -1831,37 +1915,52 @@
     </row>
     <row r="34" spans="1:9" ht="12" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12" customHeight="1">
-      <c r="A35" s="28" t="s">
-        <v>46</v>
+      <c r="A35" s="19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="12" customHeight="1">
       <c r="A36" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12" customHeight="1">
+      <c r="A37" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="10" customHeight="1">
+      <c r="A38" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:9" ht="10" customHeight="1">
+      <c r="A39" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1870,6 +1969,618 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF1FB26-5429-154F-8F37-227FC0E69C75}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>16548</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10770888</v>
+      </c>
+      <c r="D3">
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2869</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2130988</v>
+      </c>
+      <c r="D4">
+        <v>134.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4102</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4288788</v>
+      </c>
+      <c r="G4">
+        <v>95.6</v>
+      </c>
+      <c r="H4">
+        <v>845</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2513728</v>
+      </c>
+      <c r="J4">
+        <v>33.6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2344</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2415367</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3847</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4739423</v>
+      </c>
+      <c r="G5">
+        <v>81.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2603</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5563519</v>
+      </c>
+      <c r="J5">
+        <v>46.8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2541</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2795091</v>
+      </c>
+      <c r="D6">
+        <v>90.9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4249</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4705037</v>
+      </c>
+      <c r="G6">
+        <v>90.3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3849</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6791650</v>
+      </c>
+      <c r="J6">
+        <v>56.7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1686</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3106390</v>
+      </c>
+      <c r="D7">
+        <v>54.3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3538</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4794784</v>
+      </c>
+      <c r="G7">
+        <v>73.8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4211</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10452637</v>
+      </c>
+      <c r="J7">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>854</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1306147</v>
+      </c>
+      <c r="D8">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1461</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2952557</v>
+      </c>
+      <c r="G8">
+        <v>49.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3056</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12505433</v>
+      </c>
+      <c r="J8">
+        <v>24.4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1">
+        <v>622604</v>
+      </c>
+      <c r="D9">
+        <v>32.1</v>
+      </c>
+      <c r="E9">
+        <v>281</v>
+      </c>
+      <c r="F9" s="1">
+        <v>697948</v>
+      </c>
+      <c r="G9">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1285</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6077200</v>
+      </c>
+      <c r="J9">
+        <v>21.1</v>
+      </c>
+      <c r="K9">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>153</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1008846</v>
+      </c>
+      <c r="D10">
+        <v>15.2</v>
+      </c>
+      <c r="E10">
+        <v>182</v>
+      </c>
+      <c r="F10" s="1">
+        <v>406109</v>
+      </c>
+      <c r="G10">
+        <v>44.8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1138</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6669161</v>
+      </c>
+      <c r="J10">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K10">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>192</v>
+      </c>
+      <c r="C11" s="1">
+        <v>878861</v>
+      </c>
+      <c r="D11">
+        <v>21.8</v>
+      </c>
+      <c r="E11">
+        <v>254</v>
+      </c>
+      <c r="F11" s="1">
+        <v>668760</v>
+      </c>
+      <c r="G11">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1773</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14646121</v>
+      </c>
+      <c r="J11">
+        <v>12.1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>122</v>
+      </c>
+      <c r="C12" s="1">
+        <v>81035</v>
+      </c>
+      <c r="D12">
+        <v>150.6</v>
+      </c>
+      <c r="E12">
+        <v>159</v>
+      </c>
+      <c r="F12" s="1">
+        <v>470013</v>
+      </c>
+      <c r="G12">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1101</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8475610</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13" s="1">
+        <v>165204</v>
+      </c>
+      <c r="G13">
+        <v>45.4</v>
+      </c>
+      <c r="H13">
+        <v>549</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2213610</v>
+      </c>
+      <c r="J13">
+        <v>24.8</v>
+      </c>
+      <c r="K13">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <f>SUM(B4:B12)</f>
+        <v>10961</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C4:C12)</f>
+        <v>14345329</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
+        <v>76.408146512359522</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E4:E12)</f>
+        <v>18073</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(F4:F12)</f>
+        <v>23723419</v>
+      </c>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
+        <v>76.182105117310442</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H4:H12)</f>
+        <v>19861</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I4:I12)</f>
+        <v>73695059</v>
+      </c>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
+        <v>26.950246420184019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B15</f>
+        <v>10961</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15</f>
+        <v>14345329</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
+        <v>76.408146512359522</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
+        <v>37934</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
+        <v>97418478</v>
+      </c>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
+        <v>38.939224650994852</v>
+      </c>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
+        <v>0.50962137453100209</v>
+      </c>
+      <c r="I18" s="7">
+        <f>1-H18</f>
+        <v>0.49037862546899791</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>29034</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>38068748</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>76.267283599660288</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>19861</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>73695059</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>26.950246420184019</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.35336575721839475</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.6466342427816052</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{F57F6F08-F694-8C4B-A326-794D9FC29BBC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC594148-9F31-7A42-8E4A-6FB3022054F1}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -2482,18 +3193,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7C24CC-94FE-DE43-A7E4-835F47DDD733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6000DD-383A-474C-8FFC-D6734052F7EE}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2533,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>142312</v>
+        <v>138169</v>
       </c>
       <c r="C3" s="1">
-        <v>10661366</v>
+        <v>10626783</v>
       </c>
       <c r="D3">
-        <v>1334.8</v>
+        <v>1300.2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2547,34 +3256,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>29032</v>
+        <v>25041</v>
       </c>
       <c r="C4" s="1">
-        <v>2188505</v>
+        <v>2192242</v>
       </c>
       <c r="D4">
-        <v>1326.6</v>
+        <v>1142.3</v>
       </c>
       <c r="E4" s="1">
-        <v>46576</v>
+        <v>39588</v>
       </c>
       <c r="F4" s="1">
-        <v>3653795</v>
+        <v>3531729</v>
       </c>
       <c r="G4">
-        <v>1274.7</v>
+        <v>1120.9000000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>22153</v>
+        <v>21381</v>
       </c>
       <c r="I4" s="1">
-        <v>3094663</v>
+        <v>3207856</v>
       </c>
       <c r="J4">
-        <v>715.8</v>
+        <v>666.5</v>
       </c>
       <c r="K4" s="1">
-        <v>33445</v>
+        <v>28861</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2582,34 +3291,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>31161</v>
+        <v>30730</v>
       </c>
       <c r="C5" s="1">
-        <v>2403918</v>
+        <v>2402007</v>
       </c>
       <c r="D5">
-        <v>1296.3</v>
+        <v>1279.3</v>
       </c>
       <c r="E5" s="1">
-        <v>57377</v>
+        <v>55444</v>
       </c>
       <c r="F5" s="1">
-        <v>4172212</v>
+        <v>4092440</v>
       </c>
       <c r="G5">
-        <v>1375.2</v>
+        <v>1354.8</v>
       </c>
       <c r="H5" s="1">
-        <v>64850</v>
+        <v>66941</v>
       </c>
       <c r="I5" s="1">
-        <v>6147698</v>
+        <v>6228690</v>
       </c>
       <c r="J5">
-        <v>1054.9000000000001</v>
+        <v>1074.7</v>
       </c>
       <c r="K5" s="1">
-        <v>43416</v>
+        <v>40901</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2617,34 +3326,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>28014</v>
+        <v>28366</v>
       </c>
       <c r="C6" s="1">
-        <v>2817875</v>
+        <v>2822271</v>
       </c>
       <c r="D6">
-        <v>994.2</v>
+        <v>1005.1</v>
       </c>
       <c r="E6" s="1">
-        <v>51511</v>
+        <v>51458</v>
       </c>
       <c r="F6" s="1">
-        <v>4042230</v>
+        <v>3957281</v>
       </c>
       <c r="G6">
-        <v>1274.3</v>
+        <v>1300.3</v>
       </c>
       <c r="H6" s="1">
-        <v>72661</v>
+        <v>77887</v>
       </c>
       <c r="I6" s="1">
-        <v>7435826</v>
+        <v>7515904</v>
       </c>
       <c r="J6">
-        <v>977.2</v>
+        <v>1036.3</v>
       </c>
       <c r="K6" s="1">
-        <v>46491</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2652,34 +3361,34 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>21447</v>
+        <v>21900</v>
       </c>
       <c r="C7" s="1">
-        <v>3156002</v>
+        <v>3163409</v>
       </c>
       <c r="D7">
-        <v>679.6</v>
+        <v>692.3</v>
       </c>
       <c r="E7" s="1">
-        <v>46397</v>
+        <v>45495</v>
       </c>
       <c r="F7" s="1">
-        <v>4067295</v>
+        <v>3973298</v>
       </c>
       <c r="G7">
-        <v>1140.7</v>
+        <v>1145</v>
       </c>
       <c r="H7" s="1">
-        <v>96272</v>
+        <v>100245</v>
       </c>
       <c r="I7" s="1">
-        <v>11133273</v>
+        <v>11219423</v>
       </c>
       <c r="J7">
-        <v>864.7</v>
+        <v>893.5</v>
       </c>
       <c r="K7" s="1">
-        <v>46311</v>
+        <v>45633</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2687,34 +3396,34 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>12638</v>
+        <v>13492</v>
       </c>
       <c r="C8" s="1">
-        <v>1232272</v>
+        <v>1221036</v>
       </c>
       <c r="D8">
-        <v>1025.5999999999999</v>
+        <v>1105</v>
       </c>
       <c r="E8" s="1">
-        <v>22503</v>
+        <v>22875</v>
       </c>
       <c r="F8" s="1">
-        <v>2474289</v>
+        <v>2412766</v>
       </c>
       <c r="G8">
-        <v>909.5</v>
+        <v>948.1</v>
       </c>
       <c r="H8" s="1">
-        <v>84447</v>
+        <v>90799</v>
       </c>
       <c r="I8" s="1">
-        <v>13058644</v>
+        <v>13131015</v>
       </c>
       <c r="J8">
-        <v>646.70000000000005</v>
+        <v>691.5</v>
       </c>
       <c r="K8" s="1">
-        <v>30861</v>
+        <v>31986</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2722,34 +3431,34 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>3011</v>
+        <v>3418</v>
       </c>
       <c r="C9" s="1">
-        <v>613625</v>
+        <v>611524</v>
       </c>
       <c r="D9">
-        <v>490.7</v>
+        <v>558.9</v>
       </c>
       <c r="E9" s="1">
-        <v>4187</v>
+        <v>4452</v>
       </c>
       <c r="F9" s="1">
-        <v>575442</v>
+        <v>560158</v>
       </c>
       <c r="G9">
-        <v>727.6</v>
+        <v>794.8</v>
       </c>
       <c r="H9" s="1">
-        <v>31051</v>
+        <v>34682</v>
       </c>
       <c r="I9" s="1">
-        <v>6209106</v>
+        <v>6226364</v>
       </c>
       <c r="J9">
-        <v>500.1</v>
+        <v>557</v>
       </c>
       <c r="K9" s="1">
-        <v>9820</v>
+        <v>10746</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2757,34 +3466,34 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>1815</v>
+        <v>2161</v>
       </c>
       <c r="C10" s="1">
-        <v>1042000</v>
+        <v>1047017</v>
       </c>
       <c r="D10">
-        <v>174.2</v>
+        <v>206.4</v>
       </c>
       <c r="E10" s="1">
-        <v>2142</v>
+        <v>2235</v>
       </c>
       <c r="F10" s="1">
-        <v>348966</v>
+        <v>341610</v>
       </c>
       <c r="G10">
-        <v>613.79999999999995</v>
+        <v>654.29999999999995</v>
       </c>
       <c r="H10" s="1">
-        <v>25295</v>
+        <v>28736</v>
       </c>
       <c r="I10" s="1">
-        <v>6693599</v>
+        <v>6695849</v>
       </c>
       <c r="J10">
-        <v>377.9</v>
+        <v>429.2</v>
       </c>
       <c r="K10" s="1">
-        <v>7710</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2792,34 +3501,34 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>2782</v>
+        <v>3240</v>
       </c>
       <c r="C11" s="1">
-        <v>862504</v>
+        <v>859967</v>
       </c>
       <c r="D11">
-        <v>322.5</v>
+        <v>376.8</v>
       </c>
       <c r="E11" s="1">
-        <v>2854</v>
+        <v>2999</v>
       </c>
       <c r="F11" s="1">
-        <v>571087</v>
+        <v>557536</v>
       </c>
       <c r="G11">
-        <v>499.7</v>
+        <v>537.9</v>
       </c>
       <c r="H11" s="1">
-        <v>40892</v>
+        <v>46948</v>
       </c>
       <c r="I11" s="1">
-        <v>14761040</v>
+        <v>14776996</v>
       </c>
       <c r="J11">
-        <v>277</v>
+        <v>317.7</v>
       </c>
       <c r="K11" s="1">
-        <v>12593</v>
+        <v>14145</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2827,34 +3536,34 @@
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>1864</v>
+        <v>2165</v>
       </c>
       <c r="C12" s="1">
-        <v>40255</v>
+        <v>33967</v>
       </c>
       <c r="D12">
-        <v>4630.5</v>
+        <v>6373.8</v>
       </c>
       <c r="E12" s="1">
-        <v>1936</v>
+        <v>2126</v>
       </c>
       <c r="F12" s="1">
-        <v>394766</v>
+        <v>384646</v>
       </c>
       <c r="G12">
-        <v>490.4</v>
+        <v>552.70000000000005</v>
       </c>
       <c r="H12" s="1">
-        <v>22916</v>
+        <v>27403</v>
       </c>
       <c r="I12" s="1">
-        <v>8592454</v>
+        <v>8608880</v>
       </c>
       <c r="J12">
-        <v>266.7</v>
+        <v>318.3</v>
       </c>
       <c r="K12" s="1">
-        <v>8714</v>
+        <v>10097</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2862,7 +3571,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>820</v>
+        <v>972</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -2871,25 +3580,25 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>791</v>
+        <v>866</v>
       </c>
       <c r="F13" s="1">
-        <v>134534</v>
+        <v>130706</v>
       </c>
       <c r="G13">
-        <v>588</v>
+        <v>662.6</v>
       </c>
       <c r="H13" s="1">
-        <v>9451</v>
+        <v>11503</v>
       </c>
       <c r="I13" s="1">
-        <v>2261986</v>
+        <v>2267301</v>
       </c>
       <c r="J13">
-        <v>417.8</v>
+        <v>507.3</v>
       </c>
       <c r="K13" s="1">
-        <v>3704</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2930,39 +3639,39 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B4:B12)</f>
-        <v>131764</v>
+        <v>130513</v>
       </c>
       <c r="C15" s="1">
         <f>SUM(C4:C12)</f>
-        <v>14356956</v>
+        <v>14353440</v>
       </c>
       <c r="D15" s="4">
         <f>B15/C15*100000</f>
-        <v>917.77114870310936</v>
+        <v>909.28028402947302</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E4:E12)</f>
-        <v>235483</v>
+        <v>226672</v>
       </c>
       <c r="F15" s="1">
         <f>SUM(F4:F12)</f>
-        <v>20300082</v>
+        <v>19811464</v>
       </c>
       <c r="G15" s="4">
         <f>E15/F15*100000</f>
-        <v>1160.0100925700694</v>
+        <v>1144.1456320441539</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(H4:H12)</f>
-        <v>460537</v>
+        <v>495022</v>
       </c>
       <c r="I15" s="1">
         <f>SUM(I4:I12)</f>
-        <v>77126303</v>
+        <v>77610977</v>
       </c>
       <c r="J15" s="4">
         <f>H15/I15*100000</f>
-        <v>597.12054394724453</v>
+        <v>637.82472420106239</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2997,35 +3706,35 @@
       </c>
       <c r="B18" s="1">
         <f>B15</f>
-        <v>131764</v>
+        <v>130513</v>
       </c>
       <c r="C18" s="1">
         <f>C15</f>
-        <v>14356956</v>
+        <v>14353440</v>
       </c>
       <c r="D18" s="4">
         <f>B18/C18*100000</f>
-        <v>917.77114870310936</v>
+        <v>909.28028402947302</v>
       </c>
       <c r="E18" s="1">
         <f>E15+H15</f>
-        <v>696020</v>
+        <v>721694</v>
       </c>
       <c r="F18" s="1">
         <f>F15+I15</f>
-        <v>97426385</v>
+        <v>97422441</v>
       </c>
       <c r="G18" s="4">
         <f>E18/F18*100000</f>
-        <v>714.40606156124954</v>
+        <v>740.78825432017254</v>
       </c>
       <c r="H18" s="6">
         <f>G18/D18</f>
-        <v>0.77841416410917641</v>
+        <v>0.81469736816174154</v>
       </c>
       <c r="I18" s="7">
         <f>1-H18</f>
-        <v>0.22158583589082359</v>
+        <v>0.18530263183825846</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -3061,35 +3770,35 @@
       </c>
       <c r="B21" s="1">
         <f>B15+E15</f>
-        <v>367247</v>
+        <v>357185</v>
       </c>
       <c r="C21" s="1">
         <f>C15+F15</f>
-        <v>34657038</v>
+        <v>34164904</v>
       </c>
       <c r="D21" s="4">
         <f>B21/C21*100000</f>
-        <v>1059.6606669040789</v>
+        <v>1045.4734484253197</v>
       </c>
       <c r="E21" s="1">
         <f>H15</f>
-        <v>460537</v>
+        <v>495022</v>
       </c>
       <c r="F21" s="1">
         <f>I15</f>
-        <v>77126303</v>
+        <v>77610977</v>
       </c>
       <c r="G21" s="4">
         <f>E21/F21*100000</f>
-        <v>597.12054394724453</v>
+        <v>637.82472420106239</v>
       </c>
       <c r="H21" s="6">
         <f>G21/D21</f>
-        <v>0.56350165916019246</v>
+        <v>0.61008218349470933</v>
       </c>
       <c r="I21" s="7">
         <f>1-H21</f>
-        <v>0.43649834083980754</v>
+        <v>0.38991781650529067</v>
       </c>
     </row>
   </sheetData>
@@ -3099,6 +3808,621 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7C24CC-94FE-DE43-A7E4-835F47DDD733}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>142312</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10661366</v>
+      </c>
+      <c r="D3">
+        <v>1334.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>29032</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2188505</v>
+      </c>
+      <c r="D4">
+        <v>1326.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>46576</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3653795</v>
+      </c>
+      <c r="G4">
+        <v>1274.7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>22153</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3094663</v>
+      </c>
+      <c r="J4">
+        <v>715.8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>33445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>31161</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2403918</v>
+      </c>
+      <c r="D5">
+        <v>1296.3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>57377</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4172212</v>
+      </c>
+      <c r="G5">
+        <v>1375.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>64850</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6147698</v>
+      </c>
+      <c r="J5">
+        <v>1054.9000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>28014</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2817875</v>
+      </c>
+      <c r="D6">
+        <v>994.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>51511</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4042230</v>
+      </c>
+      <c r="G6">
+        <v>1274.3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>72661</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7435826</v>
+      </c>
+      <c r="J6">
+        <v>977.2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>46491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>21447</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3156002</v>
+      </c>
+      <c r="D7">
+        <v>679.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>46397</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4067295</v>
+      </c>
+      <c r="G7">
+        <v>1140.7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>96272</v>
+      </c>
+      <c r="I7" s="1">
+        <v>11133273</v>
+      </c>
+      <c r="J7">
+        <v>864.7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>46311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12638</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1232272</v>
+      </c>
+      <c r="D8">
+        <v>1025.5999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22503</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2474289</v>
+      </c>
+      <c r="G8">
+        <v>909.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>84447</v>
+      </c>
+      <c r="I8" s="1">
+        <v>13058644</v>
+      </c>
+      <c r="J8">
+        <v>646.70000000000005</v>
+      </c>
+      <c r="K8" s="1">
+        <v>30861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3011</v>
+      </c>
+      <c r="C9" s="1">
+        <v>613625</v>
+      </c>
+      <c r="D9">
+        <v>490.7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4187</v>
+      </c>
+      <c r="F9" s="1">
+        <v>575442</v>
+      </c>
+      <c r="G9">
+        <v>727.6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>31051</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6209106</v>
+      </c>
+      <c r="J9">
+        <v>500.1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1815</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1042000</v>
+      </c>
+      <c r="D10">
+        <v>174.2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2142</v>
+      </c>
+      <c r="F10" s="1">
+        <v>348966</v>
+      </c>
+      <c r="G10">
+        <v>613.79999999999995</v>
+      </c>
+      <c r="H10" s="1">
+        <v>25295</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6693599</v>
+      </c>
+      <c r="J10">
+        <v>377.9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2782</v>
+      </c>
+      <c r="C11" s="1">
+        <v>862504</v>
+      </c>
+      <c r="D11">
+        <v>322.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2854</v>
+      </c>
+      <c r="F11" s="1">
+        <v>571087</v>
+      </c>
+      <c r="G11">
+        <v>499.7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>40892</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14761040</v>
+      </c>
+      <c r="J11">
+        <v>277</v>
+      </c>
+      <c r="K11" s="1">
+        <v>12593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1864</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40255</v>
+      </c>
+      <c r="D12">
+        <v>4630.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1936</v>
+      </c>
+      <c r="F12" s="1">
+        <v>394766</v>
+      </c>
+      <c r="G12">
+        <v>490.4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>22916</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8592454</v>
+      </c>
+      <c r="J12">
+        <v>266.7</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>820</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>791</v>
+      </c>
+      <c r="F13" s="1">
+        <v>134534</v>
+      </c>
+      <c r="G13">
+        <v>588</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9451</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2261986</v>
+      </c>
+      <c r="J13">
+        <v>417.8</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1">
+        <f>SUM(B4:B12)</f>
+        <v>131764</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C4:C12)</f>
+        <v>14356956</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15/C15*100000</f>
+        <v>917.77114870310936</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E4:E12)</f>
+        <v>235483</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(F4:F12)</f>
+        <v>20300082</v>
+      </c>
+      <c r="G15" s="4">
+        <f>E15/F15*100000</f>
+        <v>1160.0100925700694</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H4:H12)</f>
+        <v>460537</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I4:I12)</f>
+        <v>77126303</v>
+      </c>
+      <c r="J15" s="4">
+        <f>H15/I15*100000</f>
+        <v>597.12054394724453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B15</f>
+        <v>131764</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15</f>
+        <v>14356956</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18/C18*100000</f>
+        <v>917.77114870310936</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E15+H15</f>
+        <v>696020</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F15+I15</f>
+        <v>97426385</v>
+      </c>
+      <c r="G18" s="4">
+        <f>E18/F18*100000</f>
+        <v>714.40606156124954</v>
+      </c>
+      <c r="H18" s="6">
+        <f>G18/D18</f>
+        <v>0.77841416410917641</v>
+      </c>
+      <c r="I18" s="7">
+        <f>1-H18</f>
+        <v>0.22158583589082359</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B15+E15</f>
+        <v>367247</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C15+F15</f>
+        <v>34657038</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21/C21*100000</f>
+        <v>1059.6606669040789</v>
+      </c>
+      <c r="E21" s="1">
+        <f>H15</f>
+        <v>460537</v>
+      </c>
+      <c r="F21" s="1">
+        <f>I15</f>
+        <v>77126303</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/F21*100000</f>
+        <v>597.12054394724453</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21/D21</f>
+        <v>0.56350165916019246</v>
+      </c>
+      <c r="I21" s="7">
+        <f>1-H21</f>
+        <v>0.43649834083980754</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47240E34-C12B-CF43-891B-FC20EA154E51}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -3718,7 +5042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32255ACD-1CC9-C940-900D-EAD55B741142}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -4335,7 +5659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33C3266-9902-5243-AAA0-969E5D3E9A2A}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -4956,7 +6280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C97BFB-9A25-A44E-986F-C0C9B7E90C2E}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -5577,7 +6901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C976D44-D8EA-CD4C-B4BE-A813CBA42020}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -6198,7 +7522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53529764-596A-B04D-8640-EA9B8577167F}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -6931,616 +8255,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF1FB26-5429-154F-8F37-227FC0E69C75}">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>16548</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10770888</v>
-      </c>
-      <c r="D3">
-        <v>153.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2869</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2130988</v>
-      </c>
-      <c r="D4">
-        <v>134.6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4102</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4288788</v>
-      </c>
-      <c r="G4">
-        <v>95.6</v>
-      </c>
-      <c r="H4">
-        <v>845</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2513728</v>
-      </c>
-      <c r="J4">
-        <v>33.6</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2344</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2415367</v>
-      </c>
-      <c r="D5">
-        <v>97</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3847</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4739423</v>
-      </c>
-      <c r="G5">
-        <v>81.2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2603</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5563519</v>
-      </c>
-      <c r="J5">
-        <v>46.8</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2541</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2795091</v>
-      </c>
-      <c r="D6">
-        <v>90.9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4249</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4705037</v>
-      </c>
-      <c r="G6">
-        <v>90.3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3849</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6791650</v>
-      </c>
-      <c r="J6">
-        <v>56.7</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1686</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3106390</v>
-      </c>
-      <c r="D7">
-        <v>54.3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3538</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4794784</v>
-      </c>
-      <c r="G7">
-        <v>73.8</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4211</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10452637</v>
-      </c>
-      <c r="J7">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="K7" s="1">
-        <v>4592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>854</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1306147</v>
-      </c>
-      <c r="D8">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1461</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2952557</v>
-      </c>
-      <c r="G8">
-        <v>49.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3056</v>
-      </c>
-      <c r="I8" s="1">
-        <v>12505433</v>
-      </c>
-      <c r="J8">
-        <v>24.4</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-      <c r="C9" s="1">
-        <v>622604</v>
-      </c>
-      <c r="D9">
-        <v>32.1</v>
-      </c>
-      <c r="E9">
-        <v>281</v>
-      </c>
-      <c r="F9" s="1">
-        <v>697948</v>
-      </c>
-      <c r="G9">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1285</v>
-      </c>
-      <c r="I9" s="1">
-        <v>6077200</v>
-      </c>
-      <c r="J9">
-        <v>21.1</v>
-      </c>
-      <c r="K9">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>153</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1008846</v>
-      </c>
-      <c r="D10">
-        <v>15.2</v>
-      </c>
-      <c r="E10">
-        <v>182</v>
-      </c>
-      <c r="F10" s="1">
-        <v>406109</v>
-      </c>
-      <c r="G10">
-        <v>44.8</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1138</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6669161</v>
-      </c>
-      <c r="J10">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="K10">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>192</v>
-      </c>
-      <c r="C11" s="1">
-        <v>878861</v>
-      </c>
-      <c r="D11">
-        <v>21.8</v>
-      </c>
-      <c r="E11">
-        <v>254</v>
-      </c>
-      <c r="F11" s="1">
-        <v>668760</v>
-      </c>
-      <c r="G11">
-        <v>38</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1773</v>
-      </c>
-      <c r="I11" s="1">
-        <v>14646121</v>
-      </c>
-      <c r="J11">
-        <v>12.1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>122</v>
-      </c>
-      <c r="C12" s="1">
-        <v>81035</v>
-      </c>
-      <c r="D12">
-        <v>150.6</v>
-      </c>
-      <c r="E12">
-        <v>159</v>
-      </c>
-      <c r="F12" s="1">
-        <v>470013</v>
-      </c>
-      <c r="G12">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1101</v>
-      </c>
-      <c r="I12" s="1">
-        <v>8475610</v>
-      </c>
-      <c r="J12">
-        <v>13</v>
-      </c>
-      <c r="K12">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
-      <c r="F13" s="1">
-        <v>165204</v>
-      </c>
-      <c r="G13">
-        <v>45.4</v>
-      </c>
-      <c r="H13">
-        <v>549</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2213610</v>
-      </c>
-      <c r="J13">
-        <v>24.8</v>
-      </c>
-      <c r="K13">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1">
-        <f>SUM(B4:B12)</f>
-        <v>10961</v>
-      </c>
-      <c r="C15" s="1">
-        <f>SUM(C4:C12)</f>
-        <v>14345329</v>
-      </c>
-      <c r="D15" s="4">
-        <f>B15/C15*100000</f>
-        <v>76.408146512359522</v>
-      </c>
-      <c r="E15" s="1">
-        <f>SUM(E4:E12)</f>
-        <v>18073</v>
-      </c>
-      <c r="F15" s="1">
-        <f>SUM(F4:F12)</f>
-        <v>23723419</v>
-      </c>
-      <c r="G15" s="4">
-        <f>E15/F15*100000</f>
-        <v>76.182105117310442</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SUM(H4:H12)</f>
-        <v>19861</v>
-      </c>
-      <c r="I15" s="1">
-        <f>SUM(I4:I12)</f>
-        <v>73695059</v>
-      </c>
-      <c r="J15" s="4">
-        <f>H15/I15*100000</f>
-        <v>26.950246420184019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1">
-        <f>B15</f>
-        <v>10961</v>
-      </c>
-      <c r="C18" s="1">
-        <f>C15</f>
-        <v>14345329</v>
-      </c>
-      <c r="D18" s="4">
-        <f>B18/C18*100000</f>
-        <v>76.408146512359522</v>
-      </c>
-      <c r="E18" s="1">
-        <f>E15+H15</f>
-        <v>37934</v>
-      </c>
-      <c r="F18" s="1">
-        <f>F15+I15</f>
-        <v>97418478</v>
-      </c>
-      <c r="G18" s="4">
-        <f>E18/F18*100000</f>
-        <v>38.939224650994852</v>
-      </c>
-      <c r="H18" s="6">
-        <f>G18/D18</f>
-        <v>0.50962137453100209</v>
-      </c>
-      <c r="I18" s="7">
-        <f>1-H18</f>
-        <v>0.49037862546899791</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="1">
-        <f>B15+E15</f>
-        <v>29034</v>
-      </c>
-      <c r="C21" s="1">
-        <f>C15+F15</f>
-        <v>38068748</v>
-      </c>
-      <c r="D21" s="4">
-        <f>B21/C21*100000</f>
-        <v>76.267283599660288</v>
-      </c>
-      <c r="E21" s="1">
-        <f>H15</f>
-        <v>19861</v>
-      </c>
-      <c r="F21" s="1">
-        <f>I15</f>
-        <v>73695059</v>
-      </c>
-      <c r="G21" s="4">
-        <f>E21/F21*100000</f>
-        <v>26.950246420184019</v>
-      </c>
-      <c r="H21" s="6">
-        <f>G21/D21</f>
-        <v>0.35336575721839475</v>
-      </c>
-      <c r="I21" s="7">
-        <f>1-H21</f>
-        <v>0.6466342427816052</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{F57F6F08-F694-8C4B-A326-794D9FC29BBC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>